--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_23_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_23_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1325808.348553936</v>
+        <v>1308277.714070983</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8291450.291429732</v>
+        <v>8112558.798638824</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11223948.89992745</v>
+        <v>11739719.61562467</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6146290.160325549</v>
+        <v>6096295.656062349</v>
       </c>
     </row>
     <row r="11">
@@ -8693,7 +8695,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>146.3697821185721</v>
       </c>
       <c r="M11" t="n">
         <v>230.3462332272727</v>
@@ -8705,10 +8707,10 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>141.8363629038545</v>
       </c>
       <c r="Q11" t="n">
-        <v>210.356400519837</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>114.8883373120542</v>
+        <v>79.13802629655596</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>48.4448061229439</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>130.1847445674058</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>122.5488387846562</v>
+        <v>41.94507923191821</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>53.19961159302935</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>44.57777456291515</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>50.58514123460643</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8851,19 +8853,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>122.9353869266258</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M13" t="n">
-        <v>126.9764945929925</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N13" t="n">
-        <v>115.7362551106207</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O13" t="n">
-        <v>126.5072490972303</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P13" t="n">
-        <v>125.7787146945351</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>87.68672441001351</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>146.3697821185721</v>
       </c>
       <c r="M14" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>209.8452173043127</v>
       </c>
       <c r="O14" t="n">
         <v>230.0982114216867</v>
@@ -8945,7 +8947,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
-        <v>128.9465097577767</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9000,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>6.163199883327223</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>33.47844654999392</v>
+        <v>37.4409938152516</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>48.4448061229439</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>49.15774692845909</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>52.73740107060323</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>41.94507923191821</v>
       </c>
       <c r="O15" t="n">
-        <v>73.8979798302888</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>40.61522729765747</v>
+        <v>44.57777456291515</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>50.58514123460643</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,25 +9087,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>35.65407805386261</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>41.52549616456551</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M16" t="n">
-        <v>45.56660383093228</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N16" t="n">
-        <v>34.32636434856042</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O16" t="n">
-        <v>45.09735833517001</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P16" t="n">
-        <v>44.36882393247484</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
-        <v>58.14582151277307</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>87.68672441001351</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>132.8030648104257</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>127.3828830677112</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>127.1348612621252</v>
       </c>
       <c r="P17" t="n">
         <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
-        <v>128.9465097577767</v>
+        <v>153.1974177860616</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9237,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>6.163199883327223</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>33.47844654999392</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
@@ -9249,13 +9251,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>48.77485380534554</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>73.8979798302888</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9319,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.63624132272333</v>
+        <v>24.03207127983454</v>
       </c>
       <c r="K19" t="n">
-        <v>35.65407805386261</v>
+        <v>26.04990801097381</v>
       </c>
       <c r="L19" t="n">
-        <v>41.52549616456551</v>
+        <v>31.92132612167671</v>
       </c>
       <c r="M19" t="n">
-        <v>45.56660383093228</v>
+        <v>35.96243378804348</v>
       </c>
       <c r="N19" t="n">
-        <v>34.32636434856042</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O19" t="n">
-        <v>45.09735833517001</v>
+        <v>35.49318829228122</v>
       </c>
       <c r="P19" t="n">
-        <v>44.36882393247484</v>
+        <v>34.76465388958604</v>
       </c>
       <c r="Q19" t="n">
-        <v>58.14582151277307</v>
+        <v>48.54165146988427</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>87.68672441001351</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>220.0898510449805</v>
@@ -9407,19 +9409,19 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M20" t="n">
-        <v>230.3462332272727</v>
+        <v>171.619128657575</v>
       </c>
       <c r="N20" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>230.0982114216867</v>
+        <v>127.1348612621252</v>
       </c>
       <c r="P20" t="n">
-        <v>231.2329957552695</v>
+        <v>128.269645595708</v>
       </c>
       <c r="Q20" t="n">
-        <v>128.9465097577767</v>
+        <v>119.3423397148879</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9474,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>6.163199883327223</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>33.47844654999392</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>44.48225885768622</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>35.59102962031261</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>28.37836192377173</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>39.63289428488287</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>71.28350947186588</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>42.71615380440238</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9559,25 +9561,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>35.65407805386261</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>41.52549616456551</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M22" t="n">
-        <v>45.56660383093228</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N22" t="n">
-        <v>34.32636434856042</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O22" t="n">
-        <v>45.09735833517001</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P22" t="n">
-        <v>44.36882393247484</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
-        <v>58.14582151277307</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>87.68672441001351</v>
+        <v>104.5782147313542</v>
       </c>
       <c r="K23" t="n">
-        <v>220.0898510449805</v>
+        <v>117.126500885419</v>
       </c>
       <c r="L23" t="n">
-        <v>235.7664149699872</v>
+        <v>132.8030648104257</v>
       </c>
       <c r="M23" t="n">
         <v>230.3462332272727</v>
@@ -9656,7 +9658,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
-        <v>128.9465097577767</v>
+        <v>119.3423397148879</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9711,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>6.163199883327223</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>33.47844654999392</v>
+        <v>23.87427650710512</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>35.59102962031261</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>62.64344746917767</v>
+        <v>28.37836192377173</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>40.61522729765747</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>42.71615380440238</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9793,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132272334</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>35.65407805386261</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>41.52549616456551</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M25" t="n">
-        <v>45.56660383093228</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N25" t="n">
-        <v>34.32636434856042</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O25" t="n">
-        <v>45.09735833517001</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P25" t="n">
-        <v>44.36882393247484</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
-        <v>58.14582151277307</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>106.9230682428483</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>220.0898510449805</v>
+        <v>130.6932181935655</v>
       </c>
       <c r="L26" t="n">
         <v>146.3697821185722</v>
       </c>
       <c r="M26" t="n">
-        <v>230.3462332272727</v>
+        <v>140.9496003758576</v>
       </c>
       <c r="N26" t="n">
-        <v>229.4130635965909</v>
+        <v>156.963349396575</v>
       </c>
       <c r="O26" t="n">
-        <v>140.7015785702716</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P26" t="n">
         <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
-        <v>132.9090570230344</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>37.44099381525162</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -10036,16 +10038,16 @@
         <v>39.6166253191203</v>
       </c>
       <c r="L28" t="n">
-        <v>134.8846762812383</v>
+        <v>45.48804342982321</v>
       </c>
       <c r="M28" t="n">
-        <v>138.9257839476051</v>
+        <v>49.52915109618998</v>
       </c>
       <c r="N28" t="n">
         <v>127.6855444652332</v>
       </c>
       <c r="O28" t="n">
-        <v>49.05990560042771</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P28" t="n">
         <v>48.33137119773254</v>
@@ -10109,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>39.38145553017398</v>
+        <v>91.64927167527121</v>
       </c>
       <c r="K29" t="n">
-        <v>220.0898510449805</v>
+        <v>130.6932181935655</v>
       </c>
       <c r="L29" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M29" t="n">
-        <v>230.3462332272727</v>
+        <v>140.9496003758576</v>
       </c>
       <c r="N29" t="n">
         <v>229.4130635965909</v>
@@ -10130,7 +10132,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
-        <v>80.64124087793718</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10185,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>49.1577469284591</v>
       </c>
       <c r="M30" t="n">
-        <v>0.4695849255060125</v>
+        <v>52.73740107060324</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>41.94507923191823</v>
       </c>
       <c r="O30" t="n">
-        <v>0.9317954479321315</v>
+        <v>62.24639758327069</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>17.42474828924037</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>4.015054967451647</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
         <v>134.8846762812383</v>
@@ -10285,10 +10287,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>9.840552632933537</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>39.38145553017398</v>
+        <v>68.81046029018982</v>
       </c>
       <c r="K32" t="n">
-        <v>220.0898510449805</v>
+        <v>107.8544068084841</v>
       </c>
       <c r="L32" t="n">
-        <v>235.7664149699872</v>
+        <v>123.5309707334908</v>
       </c>
       <c r="M32" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
-        <v>229.4130635965909</v>
+        <v>117.1776193600945</v>
       </c>
       <c r="O32" t="n">
         <v>230.0982114216867</v>
@@ -10367,7 +10369,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
-        <v>80.64124087793718</v>
+        <v>123.6393351661098</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10422,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>4.015054967451647</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.70352623307676</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>134.8846762812383</v>
+        <v>22.64923204474182</v>
       </c>
       <c r="M34" t="n">
         <v>138.9257839476051</v>
       </c>
       <c r="N34" t="n">
-        <v>127.6855444652332</v>
+        <v>15.45010022873673</v>
       </c>
       <c r="O34" t="n">
         <v>138.4565384518428</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>9.840552632933537</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>39.38145553017398</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>107.8544068084841</v>
       </c>
       <c r="L35" t="n">
         <v>235.7664149699872</v>
@@ -10604,7 +10606,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
-        <v>80.64124087793718</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,31 +10664,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>14.60218243017023</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>106.4609313401719</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>26.31893554337772</v>
       </c>
       <c r="M36" t="n">
-        <v>0.4695849255060125</v>
+        <v>29.89858968552186</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>19.10626784683684</v>
       </c>
       <c r="O36" t="n">
-        <v>0.9317954479321315</v>
+        <v>30.36080020794797</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>27.74632984952505</v>
       </c>
       <c r="R36" t="n">
-        <v>15.43243658500199</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
         <v>134.8846762812383</v>
       </c>
       <c r="M37" t="n">
-        <v>138.9257839476051</v>
+        <v>26.69033971110859</v>
       </c>
       <c r="N37" t="n">
-        <v>127.6855444652332</v>
+        <v>15.45010022873673</v>
       </c>
       <c r="O37" t="n">
         <v>138.4565384518428</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>25.49255981265115</v>
       </c>
       <c r="Q37" t="n">
-        <v>9.840552632933537</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>39.38145553017398</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
-        <v>235.7664149699872</v>
+        <v>130.8378494124125</v>
       </c>
       <c r="M38" t="n">
-        <v>230.3462332272727</v>
+        <v>118.1107889907763</v>
       </c>
       <c r="N38" t="n">
         <v>229.4130635965909</v>
@@ -10841,7 +10843,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
-        <v>80.64124087793718</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,31 +10901,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>14.60218243017023</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>25.60599473786253</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>0.4695849255060125</v>
+        <v>29.89858968552186</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>19.10626784683684</v>
       </c>
       <c r="O39" t="n">
-        <v>0.9317954479321315</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>21.73896317783378</v>
       </c>
       <c r="Q39" t="n">
-        <v>17.42474828924148</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>4.015054967451647</v>
+        <v>33.44405972746749</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>14.75997720289965</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>16.77781393403892</v>
       </c>
       <c r="L40" t="n">
         <v>134.8846762812383</v>
@@ -10996,10 +10998,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>25.49255981265115</v>
       </c>
       <c r="Q40" t="n">
-        <v>9.840552632933537</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>47.36819761952881</v>
+        <v>144.6403758334584</v>
       </c>
       <c r="K41" t="n">
         <v>220.0898510449805</v>
@@ -11069,7 +11071,7 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>193.0075349033631</v>
       </c>
       <c r="O41" t="n">
         <v>230.0982114216867</v>
@@ -11078,7 +11080,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
-        <v>88.62798296729201</v>
+        <v>185.9001611812216</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>22.99947469079794</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>102.1488510866463</v>
       </c>
       <c r="M42" t="n">
-        <v>8.456327014860847</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>8.918537537286966</v>
+        <v>123.0793811206982</v>
       </c>
       <c r="P42" t="n">
-        <v>0.2967005071727726</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>103.5762453927937</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11215,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>92.60772947730753</v>
       </c>
       <c r="L43" t="n">
         <v>134.8846762812383</v>
@@ -11227,16 +11229,16 @@
         <v>138.9257839476051</v>
       </c>
       <c r="N43" t="n">
-        <v>127.6855444652332</v>
+        <v>91.28001577200534</v>
       </c>
       <c r="O43" t="n">
         <v>138.4565384518428</v>
       </c>
       <c r="P43" t="n">
-        <v>4.050297141990143</v>
+        <v>101.3224753559198</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.82729472228837</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11309,7 +11311,7 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>193.6926827284589</v>
       </c>
       <c r="P44" t="n">
         <v>231.2329957552695</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>90.43209797343884</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>101.4359102811311</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>102.1488510866463</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
@@ -11394,7 +11396,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>103.5762453927937</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>92.60772947730753</v>
       </c>
       <c r="L46" t="n">
-        <v>134.8846762812383</v>
+        <v>98.47914758801043</v>
       </c>
       <c r="M46" t="n">
-        <v>138.9257839476051</v>
+        <v>102.5202552543772</v>
       </c>
       <c r="N46" t="n">
-        <v>127.6855444652332</v>
+        <v>91.28001577200534</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>135.379315761991</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>101.3224753559198</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>370.7845523088681</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C11" t="n">
-        <v>353.323602416395</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D11" t="n">
-        <v>342.7337522660704</v>
+        <v>265.2864087692678</v>
       </c>
       <c r="E11" t="n">
-        <v>369.9810807176493</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F11" t="n">
-        <v>394.9267563870989</v>
+        <v>317.4794128902963</v>
       </c>
       <c r="G11" t="n">
-        <v>403.3534481605225</v>
+        <v>325.9061046637199</v>
       </c>
       <c r="H11" t="n">
-        <v>327.5255127611546</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I11" t="n">
-        <v>198.5266002157934</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>137.9198285865372</v>
+        <v>60.47248508973459</v>
       </c>
       <c r="S11" t="n">
-        <v>197.0707802316328</v>
+        <v>119.6234367348302</v>
       </c>
       <c r="T11" t="n">
-        <v>211.1465602095188</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U11" t="n">
-        <v>239.396363553224</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V11" t="n">
-        <v>315.8029691155224</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W11" t="n">
-        <v>337.2916793628005</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X11" t="n">
-        <v>357.7818113238565</v>
+        <v>280.3344678270539</v>
       </c>
       <c r="Y11" t="n">
-        <v>374.2886493014411</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>154.5838942952548</v>
+        <v>77.13655079845225</v>
       </c>
       <c r="C12" t="n">
-        <v>160.7592096337032</v>
+        <v>83.31186613690065</v>
       </c>
       <c r="D12" t="n">
-        <v>135.4957762100262</v>
+        <v>58.04843271322366</v>
       </c>
       <c r="E12" t="n">
-        <v>145.6957911007884</v>
+        <v>68.24844760398585</v>
       </c>
       <c r="F12" t="n">
-        <v>133.1199230387714</v>
+        <v>55.67257954196879</v>
       </c>
       <c r="G12" t="n">
-        <v>125.3942278085981</v>
+        <v>47.94688431179554</v>
       </c>
       <c r="H12" t="n">
-        <v>100.2861548818839</v>
+        <v>22.83881138508137</v>
       </c>
       <c r="I12" t="n">
-        <v>77.44734349680256</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>88.20854479803062</v>
+        <v>10.76120130122804</v>
       </c>
       <c r="S12" t="n">
-        <v>159.7338817492253</v>
+        <v>82.28653825242273</v>
       </c>
       <c r="T12" t="n">
-        <v>188.2154393402091</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U12" t="n">
-        <v>213.9920927263623</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V12" t="n">
-        <v>220.8512977948128</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W12" t="n">
-        <v>239.7456938063071</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X12" t="n">
-        <v>193.823695848865</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y12" t="n">
-        <v>193.7334064226918</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="13">
@@ -23413,34 +23415,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>167.8826908273248</v>
+        <v>90.43534733052221</v>
       </c>
       <c r="C13" t="n">
-        <v>155.2975317440153</v>
+        <v>77.85018824721274</v>
       </c>
       <c r="D13" t="n">
-        <v>136.6661836635998</v>
+        <v>59.21884016679726</v>
       </c>
       <c r="E13" t="n">
-        <v>134.4846732919567</v>
+        <v>57.03732979515408</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4717586683187</v>
+        <v>56.02441517151615</v>
       </c>
       <c r="G13" t="n">
-        <v>156.0416900038462</v>
+        <v>78.59434650704367</v>
       </c>
       <c r="H13" t="n">
-        <v>150.2778831528271</v>
+        <v>72.83053965602448</v>
       </c>
       <c r="I13" t="n">
-        <v>143.5011855726458</v>
+        <v>66.05384207584319</v>
       </c>
       <c r="J13" t="n">
-        <v>81.40989076206026</v>
+        <v>3.962547265257683</v>
       </c>
       <c r="K13" t="n">
-        <v>10.32020247127033</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.21275389708187</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.344102022557</v>
+        <v>87.89675852575439</v>
       </c>
       <c r="S13" t="n">
-        <v>212.0673086823597</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T13" t="n">
-        <v>215.996300073669</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U13" t="n">
-        <v>274.3697400018784</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V13" t="n">
-        <v>240.1883539692155</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W13" t="n">
-        <v>274.5737089819785</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X13" t="n">
-        <v>213.7603660344246</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.6353639974823</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>289.3746615468078</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C14" t="n">
-        <v>271.9137116543347</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D14" t="n">
-        <v>261.3238615040102</v>
+        <v>265.2864087692678</v>
       </c>
       <c r="E14" t="n">
-        <v>288.571189955589</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F14" t="n">
-        <v>313.5168656250387</v>
+        <v>317.4794128902963</v>
       </c>
       <c r="G14" t="n">
-        <v>321.9435573984623</v>
+        <v>325.9061046637199</v>
       </c>
       <c r="H14" t="n">
-        <v>246.1156219990944</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I14" t="n">
-        <v>117.1167094537331</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>56.50993782447691</v>
+        <v>60.47248508973459</v>
       </c>
       <c r="S14" t="n">
-        <v>115.6608894695726</v>
+        <v>119.6234367348302</v>
       </c>
       <c r="T14" t="n">
-        <v>129.7366694474586</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U14" t="n">
-        <v>157.9864727911637</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V14" t="n">
-        <v>234.3930783534621</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W14" t="n">
-        <v>255.8817886007402</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X14" t="n">
-        <v>276.3719205617963</v>
+        <v>280.3344678270539</v>
       </c>
       <c r="Y14" t="n">
-        <v>292.8787585393808</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="15">
@@ -23571,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>73.17400353319456</v>
+        <v>77.13655079845225</v>
       </c>
       <c r="C15" t="n">
-        <v>79.34931887164296</v>
+        <v>83.31186613690065</v>
       </c>
       <c r="D15" t="n">
-        <v>54.08588544796598</v>
+        <v>58.04843271322366</v>
       </c>
       <c r="E15" t="n">
-        <v>64.28590033872817</v>
+        <v>68.24844760398585</v>
       </c>
       <c r="F15" t="n">
-        <v>51.7100322767111</v>
+        <v>55.67257954196879</v>
       </c>
       <c r="G15" t="n">
-        <v>43.98433704653786</v>
+        <v>47.94688431179554</v>
       </c>
       <c r="H15" t="n">
-        <v>18.87626411982369</v>
+        <v>22.83881138508137</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>6.798654035970358</v>
+        <v>10.76120130122804</v>
       </c>
       <c r="S15" t="n">
-        <v>78.32399098716505</v>
+        <v>82.28653825242273</v>
       </c>
       <c r="T15" t="n">
-        <v>106.8055485781488</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U15" t="n">
-        <v>132.582201964302</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V15" t="n">
-        <v>139.4414070327525</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3358030442468</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X15" t="n">
-        <v>112.4138050868047</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y15" t="n">
-        <v>112.3235156606316</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>86.47280006526452</v>
+        <v>90.43534733052221</v>
       </c>
       <c r="C16" t="n">
-        <v>73.88764098195506</v>
+        <v>77.85018824721274</v>
       </c>
       <c r="D16" t="n">
-        <v>55.25629290153958</v>
+        <v>59.21884016679726</v>
       </c>
       <c r="E16" t="n">
-        <v>53.0747825298964</v>
+        <v>57.03732979515408</v>
       </c>
       <c r="F16" t="n">
-        <v>52.06186790625847</v>
+        <v>56.02441517151615</v>
       </c>
       <c r="G16" t="n">
-        <v>74.63179924178598</v>
+        <v>78.59434650704367</v>
       </c>
       <c r="H16" t="n">
-        <v>68.8679923907668</v>
+        <v>72.83053965602448</v>
       </c>
       <c r="I16" t="n">
-        <v>62.09129481058551</v>
+        <v>66.05384207584319</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3.962547265257683</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>83.93421126049671</v>
+        <v>87.89675852575439</v>
       </c>
       <c r="S16" t="n">
-        <v>130.6574179202995</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T16" t="n">
-        <v>134.5864093116087</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U16" t="n">
-        <v>192.9598492398181</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V16" t="n">
-        <v>158.7784632071552</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W16" t="n">
-        <v>193.1638182199182</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X16" t="n">
-        <v>132.3504752723644</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y16" t="n">
-        <v>125.225473235422</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>289.3746615468078</v>
+        <v>279.770491503919</v>
       </c>
       <c r="C17" t="n">
-        <v>271.9137116543347</v>
+        <v>262.309541611446</v>
       </c>
       <c r="D17" t="n">
-        <v>261.3238615040102</v>
+        <v>251.7196914611214</v>
       </c>
       <c r="E17" t="n">
-        <v>288.571189955589</v>
+        <v>278.9670199127002</v>
       </c>
       <c r="F17" t="n">
-        <v>313.5168656250387</v>
+        <v>303.9126955821499</v>
       </c>
       <c r="G17" t="n">
-        <v>321.9435573984623</v>
+        <v>312.3393873555735</v>
       </c>
       <c r="H17" t="n">
-        <v>246.1156219990944</v>
+        <v>236.5114519562056</v>
       </c>
       <c r="I17" t="n">
-        <v>117.1167094537331</v>
+        <v>107.5125394108443</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>56.50993782447691</v>
+        <v>46.90576778158811</v>
       </c>
       <c r="S17" t="n">
-        <v>115.6608894695726</v>
+        <v>106.0567194266838</v>
       </c>
       <c r="T17" t="n">
-        <v>129.7366694474586</v>
+        <v>120.1324994045698</v>
       </c>
       <c r="U17" t="n">
-        <v>157.9864727911637</v>
+        <v>148.3823027482749</v>
       </c>
       <c r="V17" t="n">
-        <v>234.3930783534621</v>
+        <v>224.7889083105733</v>
       </c>
       <c r="W17" t="n">
-        <v>255.8817886007402</v>
+        <v>246.2776185578514</v>
       </c>
       <c r="X17" t="n">
-        <v>276.3719205617963</v>
+        <v>266.7677505189075</v>
       </c>
       <c r="Y17" t="n">
-        <v>292.8787585393808</v>
+        <v>283.274588496492</v>
       </c>
     </row>
     <row r="18">
@@ -23808,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>73.17400353319456</v>
+        <v>63.56983349030577</v>
       </c>
       <c r="C18" t="n">
-        <v>79.34931887164296</v>
+        <v>69.74514882875417</v>
       </c>
       <c r="D18" t="n">
-        <v>54.08588544796598</v>
+        <v>44.48171540507718</v>
       </c>
       <c r="E18" t="n">
-        <v>64.28590033872817</v>
+        <v>54.68173029583937</v>
       </c>
       <c r="F18" t="n">
-        <v>51.7100322767111</v>
+        <v>42.10586223382231</v>
       </c>
       <c r="G18" t="n">
-        <v>43.98433704653786</v>
+        <v>34.38016700364906</v>
       </c>
       <c r="H18" t="n">
-        <v>18.87626411982369</v>
+        <v>9.272094076934891</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>78.32399098716505</v>
+        <v>68.71982094427625</v>
       </c>
       <c r="T18" t="n">
-        <v>106.8055485781488</v>
+        <v>97.20137853526003</v>
       </c>
       <c r="U18" t="n">
-        <v>132.582201964302</v>
+        <v>122.9780319214132</v>
       </c>
       <c r="V18" t="n">
-        <v>139.4414070327525</v>
+        <v>129.8372369898637</v>
       </c>
       <c r="W18" t="n">
-        <v>158.3358030442468</v>
+        <v>148.731633001358</v>
       </c>
       <c r="X18" t="n">
-        <v>112.4138050868047</v>
+        <v>102.8096350439159</v>
       </c>
       <c r="Y18" t="n">
-        <v>112.3235156606316</v>
+        <v>102.7193456177428</v>
       </c>
     </row>
     <row r="19">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>86.47280006526452</v>
+        <v>76.86863002237573</v>
       </c>
       <c r="C19" t="n">
-        <v>73.88764098195506</v>
+        <v>64.28347093906626</v>
       </c>
       <c r="D19" t="n">
-        <v>55.25629290153958</v>
+        <v>45.65212285865078</v>
       </c>
       <c r="E19" t="n">
-        <v>53.0747825298964</v>
+        <v>43.4706124870076</v>
       </c>
       <c r="F19" t="n">
-        <v>52.06186790625847</v>
+        <v>42.45769786336967</v>
       </c>
       <c r="G19" t="n">
-        <v>74.63179924178598</v>
+        <v>65.02762919889719</v>
       </c>
       <c r="H19" t="n">
-        <v>68.8679923907668</v>
+        <v>59.263822347878</v>
       </c>
       <c r="I19" t="n">
-        <v>62.09129481058551</v>
+        <v>52.48712476769671</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>83.93421126049671</v>
+        <v>74.33004121760791</v>
       </c>
       <c r="S19" t="n">
-        <v>130.6574179202995</v>
+        <v>121.0532478774107</v>
       </c>
       <c r="T19" t="n">
-        <v>134.5864093116087</v>
+        <v>124.9822392687199</v>
       </c>
       <c r="U19" t="n">
-        <v>192.9598492398181</v>
+        <v>183.3556791969293</v>
       </c>
       <c r="V19" t="n">
-        <v>158.7784632071552</v>
+        <v>149.1742931642664</v>
       </c>
       <c r="W19" t="n">
-        <v>193.1638182199182</v>
+        <v>183.5596481770294</v>
       </c>
       <c r="X19" t="n">
-        <v>132.3504752723644</v>
+        <v>122.7463052294756</v>
       </c>
       <c r="Y19" t="n">
-        <v>125.225473235422</v>
+        <v>115.6213031925332</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>289.3746615468078</v>
+        <v>279.770491503919</v>
       </c>
       <c r="C20" t="n">
-        <v>271.9137116543347</v>
+        <v>262.309541611446</v>
       </c>
       <c r="D20" t="n">
-        <v>261.3238615040102</v>
+        <v>251.7196914611214</v>
       </c>
       <c r="E20" t="n">
-        <v>288.571189955589</v>
+        <v>278.9670199127002</v>
       </c>
       <c r="F20" t="n">
-        <v>313.5168656250387</v>
+        <v>303.9126955821499</v>
       </c>
       <c r="G20" t="n">
-        <v>321.9435573984623</v>
+        <v>312.3393873555735</v>
       </c>
       <c r="H20" t="n">
-        <v>246.1156219990944</v>
+        <v>236.5114519562056</v>
       </c>
       <c r="I20" t="n">
-        <v>117.1167094537331</v>
+        <v>107.5125394108443</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>56.50993782447691</v>
+        <v>46.90576778158811</v>
       </c>
       <c r="S20" t="n">
-        <v>115.6608894695726</v>
+        <v>106.0567194266838</v>
       </c>
       <c r="T20" t="n">
-        <v>129.7366694474586</v>
+        <v>120.1324994045698</v>
       </c>
       <c r="U20" t="n">
-        <v>157.9864727911637</v>
+        <v>148.3823027482749</v>
       </c>
       <c r="V20" t="n">
-        <v>234.3930783534621</v>
+        <v>224.7889083105733</v>
       </c>
       <c r="W20" t="n">
-        <v>255.8817886007402</v>
+        <v>246.2776185578514</v>
       </c>
       <c r="X20" t="n">
-        <v>276.3719205617963</v>
+        <v>266.7677505189075</v>
       </c>
       <c r="Y20" t="n">
-        <v>292.8787585393808</v>
+        <v>283.274588496492</v>
       </c>
     </row>
     <row r="21">
@@ -24045,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>73.17400353319456</v>
+        <v>63.56983349030577</v>
       </c>
       <c r="C21" t="n">
-        <v>79.34931887164296</v>
+        <v>69.74514882875417</v>
       </c>
       <c r="D21" t="n">
-        <v>54.08588544796598</v>
+        <v>44.48171540507718</v>
       </c>
       <c r="E21" t="n">
-        <v>64.28590033872817</v>
+        <v>54.68173029583937</v>
       </c>
       <c r="F21" t="n">
-        <v>51.7100322767111</v>
+        <v>42.10586223382231</v>
       </c>
       <c r="G21" t="n">
-        <v>43.98433704653786</v>
+        <v>34.38016700364906</v>
       </c>
       <c r="H21" t="n">
-        <v>18.87626411982369</v>
+        <v>9.272094076934891</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>78.32399098716505</v>
+        <v>68.71982094427625</v>
       </c>
       <c r="T21" t="n">
-        <v>106.8055485781488</v>
+        <v>97.20137853526003</v>
       </c>
       <c r="U21" t="n">
-        <v>132.582201964302</v>
+        <v>122.9780319214132</v>
       </c>
       <c r="V21" t="n">
-        <v>139.4414070327525</v>
+        <v>129.8372369898637</v>
       </c>
       <c r="W21" t="n">
-        <v>158.3358030442468</v>
+        <v>148.731633001358</v>
       </c>
       <c r="X21" t="n">
-        <v>112.4138050868047</v>
+        <v>102.8096350439159</v>
       </c>
       <c r="Y21" t="n">
-        <v>112.3235156606316</v>
+        <v>102.7193456177428</v>
       </c>
     </row>
     <row r="22">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>86.47280006526452</v>
+        <v>76.86863002237573</v>
       </c>
       <c r="C22" t="n">
-        <v>73.88764098195506</v>
+        <v>64.28347093906626</v>
       </c>
       <c r="D22" t="n">
-        <v>55.25629290153958</v>
+        <v>45.65212285865078</v>
       </c>
       <c r="E22" t="n">
-        <v>53.0747825298964</v>
+        <v>43.4706124870076</v>
       </c>
       <c r="F22" t="n">
-        <v>52.06186790625847</v>
+        <v>42.45769786336967</v>
       </c>
       <c r="G22" t="n">
-        <v>74.63179924178598</v>
+        <v>65.02762919889719</v>
       </c>
       <c r="H22" t="n">
-        <v>68.8679923907668</v>
+        <v>59.263822347878</v>
       </c>
       <c r="I22" t="n">
-        <v>62.09129481058551</v>
+        <v>52.48712476769671</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>83.93421126049671</v>
+        <v>74.33004121760791</v>
       </c>
       <c r="S22" t="n">
-        <v>130.6574179202995</v>
+        <v>121.0532478774107</v>
       </c>
       <c r="T22" t="n">
-        <v>134.5864093116087</v>
+        <v>124.9822392687199</v>
       </c>
       <c r="U22" t="n">
-        <v>192.9598492398181</v>
+        <v>183.3556791969293</v>
       </c>
       <c r="V22" t="n">
-        <v>158.7784632071552</v>
+        <v>149.1742931642664</v>
       </c>
       <c r="W22" t="n">
-        <v>193.1638182199182</v>
+        <v>183.5596481770294</v>
       </c>
       <c r="X22" t="n">
-        <v>132.3504752723644</v>
+        <v>122.7463052294756</v>
       </c>
       <c r="Y22" t="n">
-        <v>125.225473235422</v>
+        <v>115.6213031925332</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>289.3746615468078</v>
+        <v>279.770491503919</v>
       </c>
       <c r="C23" t="n">
-        <v>271.9137116543347</v>
+        <v>262.309541611446</v>
       </c>
       <c r="D23" t="n">
-        <v>261.3238615040102</v>
+        <v>251.7196914611214</v>
       </c>
       <c r="E23" t="n">
-        <v>288.571189955589</v>
+        <v>278.9670199127002</v>
       </c>
       <c r="F23" t="n">
-        <v>313.5168656250387</v>
+        <v>303.9126955821499</v>
       </c>
       <c r="G23" t="n">
-        <v>321.9435573984623</v>
+        <v>312.3393873555735</v>
       </c>
       <c r="H23" t="n">
-        <v>246.1156219990944</v>
+        <v>236.5114519562056</v>
       </c>
       <c r="I23" t="n">
-        <v>117.1167094537331</v>
+        <v>107.5125394108443</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>56.50993782447691</v>
+        <v>46.90576778158811</v>
       </c>
       <c r="S23" t="n">
-        <v>115.6608894695726</v>
+        <v>106.0567194266838</v>
       </c>
       <c r="T23" t="n">
-        <v>129.7366694474586</v>
+        <v>120.1324994045698</v>
       </c>
       <c r="U23" t="n">
-        <v>157.9864727911637</v>
+        <v>148.3823027482749</v>
       </c>
       <c r="V23" t="n">
-        <v>234.3930783534621</v>
+        <v>224.7889083105733</v>
       </c>
       <c r="W23" t="n">
-        <v>255.8817886007402</v>
+        <v>246.2776185578514</v>
       </c>
       <c r="X23" t="n">
-        <v>276.3719205617963</v>
+        <v>266.7677505189075</v>
       </c>
       <c r="Y23" t="n">
-        <v>292.8787585393808</v>
+        <v>283.274588496492</v>
       </c>
     </row>
     <row r="24">
@@ -24282,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>73.17400353319456</v>
+        <v>63.56983349030577</v>
       </c>
       <c r="C24" t="n">
-        <v>79.34931887164296</v>
+        <v>69.74514882875417</v>
       </c>
       <c r="D24" t="n">
-        <v>54.08588544796598</v>
+        <v>44.48171540507718</v>
       </c>
       <c r="E24" t="n">
-        <v>64.28590033872817</v>
+        <v>54.68173029583937</v>
       </c>
       <c r="F24" t="n">
-        <v>51.7100322767111</v>
+        <v>42.10586223382231</v>
       </c>
       <c r="G24" t="n">
-        <v>43.98433704653786</v>
+        <v>34.38016700364906</v>
       </c>
       <c r="H24" t="n">
-        <v>18.87626411982369</v>
+        <v>9.272094076934891</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>78.32399098716505</v>
+        <v>68.71982094427625</v>
       </c>
       <c r="T24" t="n">
-        <v>106.8055485781488</v>
+        <v>97.20137853526003</v>
       </c>
       <c r="U24" t="n">
-        <v>132.582201964302</v>
+        <v>122.9780319214132</v>
       </c>
       <c r="V24" t="n">
-        <v>139.4414070327525</v>
+        <v>129.8372369898637</v>
       </c>
       <c r="W24" t="n">
-        <v>158.3358030442468</v>
+        <v>148.731633001358</v>
       </c>
       <c r="X24" t="n">
-        <v>112.4138050868047</v>
+        <v>102.8096350439159</v>
       </c>
       <c r="Y24" t="n">
-        <v>112.3235156606316</v>
+        <v>102.7193456177428</v>
       </c>
     </row>
     <row r="25">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>86.47280006526452</v>
+        <v>76.86863002237573</v>
       </c>
       <c r="C25" t="n">
-        <v>73.88764098195506</v>
+        <v>64.28347093906626</v>
       </c>
       <c r="D25" t="n">
-        <v>55.25629290153958</v>
+        <v>45.65212285865078</v>
       </c>
       <c r="E25" t="n">
-        <v>53.0747825298964</v>
+        <v>43.4706124870076</v>
       </c>
       <c r="F25" t="n">
-        <v>52.06186790625847</v>
+        <v>42.45769786336967</v>
       </c>
       <c r="G25" t="n">
-        <v>74.63179924178598</v>
+        <v>65.02762919889719</v>
       </c>
       <c r="H25" t="n">
-        <v>68.8679923907668</v>
+        <v>59.263822347878</v>
       </c>
       <c r="I25" t="n">
-        <v>62.09129481058551</v>
+        <v>52.48712476769671</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>83.93421126049671</v>
+        <v>74.33004121760791</v>
       </c>
       <c r="S25" t="n">
-        <v>130.6574179202995</v>
+        <v>121.0532478774107</v>
       </c>
       <c r="T25" t="n">
-        <v>134.5864093116087</v>
+        <v>124.9822392687199</v>
       </c>
       <c r="U25" t="n">
-        <v>192.9598492398181</v>
+        <v>183.3556791969293</v>
       </c>
       <c r="V25" t="n">
-        <v>158.7784632071552</v>
+        <v>149.1742931642664</v>
       </c>
       <c r="W25" t="n">
-        <v>193.1638182199182</v>
+        <v>183.5596481770294</v>
       </c>
       <c r="X25" t="n">
-        <v>132.3504752723644</v>
+        <v>122.7463052294756</v>
       </c>
       <c r="Y25" t="n">
-        <v>125.225473235422</v>
+        <v>115.6213031925332</v>
       </c>
     </row>
     <row r="26">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.0693926669683</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C29" t="n">
-        <v>223.6084427744952</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D29" t="n">
-        <v>213.0185926241707</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E29" t="n">
-        <v>240.2659210757495</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F29" t="n">
-        <v>265.2115967451991</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G29" t="n">
-        <v>273.6382885186227</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H29" t="n">
-        <v>197.8103531192548</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I29" t="n">
-        <v>68.81144057389361</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>8.204668944637376</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S29" t="n">
-        <v>67.35562058973304</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T29" t="n">
-        <v>81.43140056761905</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U29" t="n">
-        <v>109.6812039113242</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V29" t="n">
-        <v>186.0878094736226</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W29" t="n">
-        <v>207.5765197209007</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X29" t="n">
-        <v>228.0666516819567</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y29" t="n">
-        <v>244.5734896595413</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="30">
@@ -24756,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>24.86873465335503</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C30" t="n">
-        <v>31.04404999180343</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D30" t="n">
-        <v>5.780616568126447</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E30" t="n">
-        <v>15.98063145888864</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F30" t="n">
-        <v>3.404763396871573</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S30" t="n">
-        <v>30.01872210732552</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T30" t="n">
-        <v>58.5002796983093</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U30" t="n">
-        <v>84.27693308446251</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V30" t="n">
-        <v>91.13613815291296</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W30" t="n">
-        <v>110.0305341644073</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X30" t="n">
-        <v>64.10853620696517</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y30" t="n">
-        <v>64.01824678079205</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="31">
@@ -24835,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38.16753118542499</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C31" t="n">
-        <v>25.58237210211553</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D31" t="n">
-        <v>6.95102402170005</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E31" t="n">
-        <v>4.769513650056865</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F31" t="n">
-        <v>3.75659902641894</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G31" t="n">
-        <v>26.32653036194645</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H31" t="n">
-        <v>20.56272351092727</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I31" t="n">
-        <v>13.78602593074598</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>35.62894238065718</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S31" t="n">
-        <v>82.35214904045995</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T31" t="n">
-        <v>86.28114043176919</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U31" t="n">
-        <v>144.6545803599786</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V31" t="n">
-        <v>110.4731943273157</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W31" t="n">
-        <v>144.8585493400787</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X31" t="n">
-        <v>84.04520639252485</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y31" t="n">
-        <v>76.92020435558248</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0693926669683</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C32" t="n">
-        <v>223.6084427744952</v>
+        <v>253.0374475345111</v>
       </c>
       <c r="D32" t="n">
-        <v>213.0185926241707</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E32" t="n">
-        <v>240.2659210757495</v>
+        <v>269.6949258357653</v>
       </c>
       <c r="F32" t="n">
-        <v>265.2115967451991</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G32" t="n">
-        <v>273.6382885186227</v>
+        <v>303.0672932786386</v>
       </c>
       <c r="H32" t="n">
-        <v>197.8103531192548</v>
+        <v>227.2393578792707</v>
       </c>
       <c r="I32" t="n">
-        <v>68.81144057389361</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>8.204668944637376</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S32" t="n">
-        <v>67.35562058973304</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T32" t="n">
-        <v>81.43140056761905</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U32" t="n">
-        <v>109.6812039113242</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V32" t="n">
-        <v>186.0878094736226</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W32" t="n">
-        <v>207.5765197209007</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X32" t="n">
-        <v>228.0666516819567</v>
+        <v>257.4956564419726</v>
       </c>
       <c r="Y32" t="n">
-        <v>244.5734896595413</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="33">
@@ -24993,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24.86873465335503</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C33" t="n">
-        <v>31.04404999180343</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D33" t="n">
-        <v>5.780616568126447</v>
+        <v>35.20962132814229</v>
       </c>
       <c r="E33" t="n">
-        <v>15.98063145888864</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F33" t="n">
-        <v>3.404763396871573</v>
+        <v>32.83376815688742</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25044,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>30.01872210732552</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T33" t="n">
-        <v>58.5002796983093</v>
+        <v>87.92928445832514</v>
       </c>
       <c r="U33" t="n">
-        <v>84.27693308446251</v>
+        <v>113.7059378444784</v>
       </c>
       <c r="V33" t="n">
-        <v>91.13613815291296</v>
+        <v>120.5651429129288</v>
       </c>
       <c r="W33" t="n">
-        <v>110.0305341644073</v>
+        <v>139.4595389244232</v>
       </c>
       <c r="X33" t="n">
-        <v>64.10853620696517</v>
+        <v>93.53754096698101</v>
       </c>
       <c r="Y33" t="n">
-        <v>64.01824678079205</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="34">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>38.16753118542499</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C34" t="n">
-        <v>25.58237210211553</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D34" t="n">
-        <v>6.95102402170005</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E34" t="n">
-        <v>4.769513650056865</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F34" t="n">
-        <v>3.75659902641894</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G34" t="n">
-        <v>26.32653036194645</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H34" t="n">
-        <v>20.56272351092727</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I34" t="n">
-        <v>13.78602593074598</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>35.62894238065718</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S34" t="n">
-        <v>82.35214904045995</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T34" t="n">
-        <v>86.28114043176919</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U34" t="n">
-        <v>144.6545803599786</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V34" t="n">
-        <v>110.4731943273157</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W34" t="n">
-        <v>144.8585493400787</v>
+        <v>174.2875541000946</v>
       </c>
       <c r="X34" t="n">
-        <v>84.04520639252485</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y34" t="n">
-        <v>76.92020435558248</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.0693926669683</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C35" t="n">
-        <v>223.6084427744952</v>
+        <v>253.0374475345111</v>
       </c>
       <c r="D35" t="n">
-        <v>213.0185926241707</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E35" t="n">
-        <v>240.2659210757495</v>
+        <v>269.6949258357653</v>
       </c>
       <c r="F35" t="n">
-        <v>265.2115967451991</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G35" t="n">
-        <v>273.6382885186227</v>
+        <v>303.0672932786386</v>
       </c>
       <c r="H35" t="n">
-        <v>197.8103531192548</v>
+        <v>227.2393578792707</v>
       </c>
       <c r="I35" t="n">
-        <v>68.81144057389361</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>8.204668944637376</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S35" t="n">
-        <v>67.35562058973304</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T35" t="n">
-        <v>81.43140056761905</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U35" t="n">
-        <v>109.6812039113242</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V35" t="n">
-        <v>186.0878094736226</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W35" t="n">
-        <v>207.5765197209007</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X35" t="n">
-        <v>228.0666516819567</v>
+        <v>257.4956564419726</v>
       </c>
       <c r="Y35" t="n">
-        <v>244.5734896595413</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="36">
@@ -25230,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>24.86873465335503</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C36" t="n">
-        <v>31.04404999180343</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D36" t="n">
-        <v>5.780616568126447</v>
+        <v>35.20962132814229</v>
       </c>
       <c r="E36" t="n">
-        <v>15.98063145888864</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F36" t="n">
-        <v>3.404763396871573</v>
+        <v>32.83376815688742</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25281,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>30.01872210732552</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T36" t="n">
-        <v>58.5002796983093</v>
+        <v>87.92928445832514</v>
       </c>
       <c r="U36" t="n">
-        <v>84.27693308446251</v>
+        <v>113.7059378444784</v>
       </c>
       <c r="V36" t="n">
-        <v>91.13613815291296</v>
+        <v>120.5651429129288</v>
       </c>
       <c r="W36" t="n">
-        <v>110.0305341644073</v>
+        <v>139.4595389244232</v>
       </c>
       <c r="X36" t="n">
-        <v>64.10853620696517</v>
+        <v>93.53754096698101</v>
       </c>
       <c r="Y36" t="n">
-        <v>64.01824678079205</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="37">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>38.16753118542499</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C37" t="n">
-        <v>25.58237210211553</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D37" t="n">
-        <v>6.95102402170005</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E37" t="n">
-        <v>4.769513650056865</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F37" t="n">
-        <v>3.75659902641894</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G37" t="n">
-        <v>26.32653036194645</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H37" t="n">
-        <v>20.56272351092727</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I37" t="n">
-        <v>13.78602593074598</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>35.62894238065718</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S37" t="n">
-        <v>82.35214904045995</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T37" t="n">
-        <v>86.28114043176919</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U37" t="n">
-        <v>144.6545803599786</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V37" t="n">
-        <v>110.4731943273157</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W37" t="n">
-        <v>144.8585493400787</v>
+        <v>174.2875541000946</v>
       </c>
       <c r="X37" t="n">
-        <v>84.04520639252485</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y37" t="n">
-        <v>76.92020435558248</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.0693926669683</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C38" t="n">
-        <v>223.6084427744952</v>
+        <v>253.0374475345111</v>
       </c>
       <c r="D38" t="n">
-        <v>213.0185926241707</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E38" t="n">
-        <v>240.2659210757495</v>
+        <v>269.6949258357653</v>
       </c>
       <c r="F38" t="n">
-        <v>265.2115967451991</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G38" t="n">
-        <v>273.6382885186227</v>
+        <v>303.0672932786386</v>
       </c>
       <c r="H38" t="n">
-        <v>197.8103531192548</v>
+        <v>227.2393578792707</v>
       </c>
       <c r="I38" t="n">
-        <v>68.81144057389361</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>8.204668944637376</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S38" t="n">
-        <v>67.35562058973304</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T38" t="n">
-        <v>81.43140056761905</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U38" t="n">
-        <v>109.6812039113242</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V38" t="n">
-        <v>186.0878094736226</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W38" t="n">
-        <v>207.5765197209007</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X38" t="n">
-        <v>228.0666516819567</v>
+        <v>257.4956564419726</v>
       </c>
       <c r="Y38" t="n">
-        <v>244.5734896595413</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="39">
@@ -25467,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>24.86873465335503</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C39" t="n">
-        <v>31.04404999180343</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D39" t="n">
-        <v>5.780616568126447</v>
+        <v>35.20962132814229</v>
       </c>
       <c r="E39" t="n">
-        <v>15.98063145888864</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F39" t="n">
-        <v>3.404763396871573</v>
+        <v>32.83376815688742</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25518,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>30.01872210732552</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T39" t="n">
-        <v>58.5002796983093</v>
+        <v>87.92928445832514</v>
       </c>
       <c r="U39" t="n">
-        <v>84.27693308446251</v>
+        <v>113.7059378444784</v>
       </c>
       <c r="V39" t="n">
-        <v>91.13613815291296</v>
+        <v>120.5651429129288</v>
       </c>
       <c r="W39" t="n">
-        <v>110.0305341644073</v>
+        <v>139.4595389244232</v>
       </c>
       <c r="X39" t="n">
-        <v>64.10853620696517</v>
+        <v>93.53754096698101</v>
       </c>
       <c r="Y39" t="n">
-        <v>64.01824678079205</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="40">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>38.16753118542499</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C40" t="n">
-        <v>25.58237210211553</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D40" t="n">
-        <v>6.95102402170005</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E40" t="n">
-        <v>4.769513650056865</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F40" t="n">
-        <v>3.75659902641894</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G40" t="n">
-        <v>26.32653036194645</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H40" t="n">
-        <v>20.56272351092727</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I40" t="n">
-        <v>13.78602593074598</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>35.62894238065718</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S40" t="n">
-        <v>82.35214904045995</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T40" t="n">
-        <v>86.28114043176919</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U40" t="n">
-        <v>144.6545803599786</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V40" t="n">
-        <v>110.4731943273157</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W40" t="n">
-        <v>144.8585493400787</v>
+        <v>174.2875541000946</v>
       </c>
       <c r="X40" t="n">
-        <v>84.04520639252485</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y40" t="n">
-        <v>76.92020435558248</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>249.0561347563231</v>
+        <v>346.3283129702527</v>
       </c>
       <c r="C41" t="n">
-        <v>231.5951848638501</v>
+        <v>328.8673630777797</v>
       </c>
       <c r="D41" t="n">
-        <v>221.0053347135255</v>
+        <v>318.2775129274551</v>
       </c>
       <c r="E41" t="n">
-        <v>248.2526631651043</v>
+        <v>345.5248413790339</v>
       </c>
       <c r="F41" t="n">
-        <v>273.198338834554</v>
+        <v>370.4705170484836</v>
       </c>
       <c r="G41" t="n">
-        <v>281.6250306079776</v>
+        <v>378.8972088219072</v>
       </c>
       <c r="H41" t="n">
-        <v>205.7970952086097</v>
+        <v>303.0692734225393</v>
       </c>
       <c r="I41" t="n">
-        <v>76.79818266324844</v>
+        <v>174.0703608771781</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>16.19141103399221</v>
+        <v>113.4635892479218</v>
       </c>
       <c r="S41" t="n">
-        <v>75.34236267908787</v>
+        <v>172.6145408930175</v>
       </c>
       <c r="T41" t="n">
-        <v>89.41814265697388</v>
+        <v>186.6903208709035</v>
       </c>
       <c r="U41" t="n">
-        <v>117.667946000679</v>
+        <v>214.9401242146087</v>
       </c>
       <c r="V41" t="n">
-        <v>194.0745515629774</v>
+        <v>291.3467297769071</v>
       </c>
       <c r="W41" t="n">
-        <v>215.5632618102555</v>
+        <v>312.8354400241852</v>
       </c>
       <c r="X41" t="n">
-        <v>236.0533937713116</v>
+        <v>333.3255719852412</v>
       </c>
       <c r="Y41" t="n">
-        <v>252.5602317488961</v>
+        <v>349.8324099628257</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>32.85547674270987</v>
+        <v>130.1276549566395</v>
       </c>
       <c r="C42" t="n">
-        <v>39.03079208115827</v>
+        <v>136.3029702950879</v>
       </c>
       <c r="D42" t="n">
-        <v>13.76735865748128</v>
+        <v>111.0395368714109</v>
       </c>
       <c r="E42" t="n">
-        <v>23.96737354824347</v>
+        <v>121.2395517621731</v>
       </c>
       <c r="F42" t="n">
-        <v>11.39150548622641</v>
+        <v>108.663683700156</v>
       </c>
       <c r="G42" t="n">
-        <v>3.665810256053163</v>
+        <v>100.9379884699828</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>75.82991554326861</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>52.99110415818723</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>63.75230545941528</v>
       </c>
       <c r="S42" t="n">
-        <v>38.00546419668035</v>
+        <v>135.27764241061</v>
       </c>
       <c r="T42" t="n">
-        <v>66.48702178766413</v>
+        <v>163.7592000015937</v>
       </c>
       <c r="U42" t="n">
-        <v>92.26367517381735</v>
+        <v>189.535853387747</v>
       </c>
       <c r="V42" t="n">
-        <v>99.1228802422678</v>
+        <v>196.3950584561974</v>
       </c>
       <c r="W42" t="n">
-        <v>118.0172762537621</v>
+        <v>215.2894544676918</v>
       </c>
       <c r="X42" t="n">
-        <v>72.09527829632</v>
+        <v>169.3674565102496</v>
       </c>
       <c r="Y42" t="n">
-        <v>72.00498887014689</v>
+        <v>169.2771670840765</v>
       </c>
     </row>
     <row r="43">
@@ -25783,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.15427327477983</v>
+        <v>143.4264514887095</v>
       </c>
       <c r="C43" t="n">
-        <v>33.56911419147036</v>
+        <v>130.8412924054</v>
       </c>
       <c r="D43" t="n">
-        <v>14.93776611105488</v>
+        <v>112.2099443249845</v>
       </c>
       <c r="E43" t="n">
-        <v>12.7562557394117</v>
+        <v>110.0284339533413</v>
       </c>
       <c r="F43" t="n">
-        <v>11.74334111577377</v>
+        <v>109.0155193297034</v>
       </c>
       <c r="G43" t="n">
-        <v>34.31327245130129</v>
+        <v>131.5854506652309</v>
       </c>
       <c r="H43" t="n">
-        <v>28.5494656002821</v>
+        <v>125.8216438142117</v>
       </c>
       <c r="I43" t="n">
-        <v>21.77276802010081</v>
+        <v>119.0449462340304</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>56.95365142344492</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>49.75651455846653</v>
       </c>
       <c r="R43" t="n">
-        <v>43.61568447001201</v>
+        <v>140.8878626839416</v>
       </c>
       <c r="S43" t="n">
-        <v>90.33889112981478</v>
+        <v>187.6110693437444</v>
       </c>
       <c r="T43" t="n">
-        <v>94.26788252112402</v>
+        <v>191.5400607350537</v>
       </c>
       <c r="U43" t="n">
-        <v>152.6413224493334</v>
+        <v>249.9135006632631</v>
       </c>
       <c r="V43" t="n">
-        <v>118.4599364166705</v>
+        <v>215.7321146306002</v>
       </c>
       <c r="W43" t="n">
-        <v>152.8452914294335</v>
+        <v>250.1174696433632</v>
       </c>
       <c r="X43" t="n">
-        <v>92.03194848187968</v>
+        <v>189.3041266958093</v>
       </c>
       <c r="Y43" t="n">
-        <v>84.90694644493732</v>
+        <v>182.179124658867</v>
       </c>
     </row>
     <row r="44">
@@ -25862,31 +25864,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>346.3283129702527</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>328.8673630777797</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>318.2775129274551</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>345.5248413790339</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>370.4705170484836</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>378.8972088219072</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>303.0692734225393</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>174.0703608771781</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,31 +25909,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>113.4635892479218</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>172.6145408930175</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>186.6903208709035</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>214.9401242146087</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>291.3467297769071</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717414</v>
+        <v>312.8354400241852</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>333.3255719852412</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>349.8324099628257</v>
       </c>
     </row>
     <row r="45">
@@ -25941,31 +25943,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>130.1276549566395</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>136.3029702950879</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>111.0395368714109</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>121.2395517621731</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>108.663683700156</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>100.9379884699828</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>75.82991554326861</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>52.99110415818723</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>63.75230545941528</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>135.27764241061</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>163.7592000015937</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>189.535853387747</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>196.3950584561974</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>215.2894544676918</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>169.3674565102496</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>169.2771670840765</v>
       </c>
     </row>
     <row r="46">
@@ -26020,34 +26022,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>143.4264514887095</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>130.8412924054</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>112.2099443249845</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>110.0284339533413</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>109.0155193297034</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>131.5854506652309</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>125.8216438142117</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>119.0449462340304</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>56.95365142344492</v>
       </c>
       <c r="K46" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26062,34 +26064,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>49.75651455846653</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>140.8878626839416</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>187.6110693437444</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>191.5400607350537</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>249.9135006632631</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>215.7321146306002</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>250.1174696433632</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>189.3041266958093</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>182.179124658867</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>330765.3899271737</v>
+        <v>469279.1070728319</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>475978.744236094</v>
+        <v>469279.107072832</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>475978.744236094</v>
+        <v>491718.9268018033</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>475978.744236094</v>
+        <v>491718.9268018032</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>475978.744236094</v>
+        <v>491718.9268018032</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>469279.1070728319</v>
+        <v>469279.107072832</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>551451.3535084686</v>
+        <v>469279.107072832</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>551451.3535084687</v>
+        <v>506518.3015998804</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>551451.3535084687</v>
+        <v>506518.3015998804</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>551451.3535084687</v>
+        <v>506518.3015998804</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>539447.1843832146</v>
+        <v>374781.5323172814</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>306396.1057646222</v>
+        <v>374781.5323172814</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>737348.7048453346</v>
       </c>
       <c r="D2" t="n">
-        <v>737348.7048453346</v>
+        <v>737348.7048453345</v>
       </c>
       <c r="E2" t="n">
-        <v>221068.8836719024</v>
+        <v>387392.9531166678</v>
       </c>
       <c r="F2" t="n">
-        <v>395658.1927044325</v>
+        <v>387392.9531166677</v>
       </c>
       <c r="G2" t="n">
-        <v>395658.1927044326</v>
+        <v>415376.4461829411</v>
       </c>
       <c r="H2" t="n">
-        <v>395658.1927044326</v>
+        <v>415376.4461829412</v>
       </c>
       <c r="I2" t="n">
-        <v>395658.1927044326</v>
+        <v>415376.4461829416</v>
       </c>
       <c r="J2" t="n">
-        <v>387392.9531166672</v>
+        <v>387392.9531166677</v>
       </c>
       <c r="K2" t="n">
-        <v>492500.0709341093</v>
+        <v>387392.9531166678</v>
       </c>
       <c r="L2" t="n">
-        <v>492500.0709341092</v>
+        <v>434162.4505503385</v>
       </c>
       <c r="M2" t="n">
-        <v>492500.0709341092</v>
+        <v>434162.4505503384</v>
       </c>
       <c r="N2" t="n">
-        <v>492500.0709341091</v>
+        <v>434162.4505503384</v>
       </c>
       <c r="O2" t="n">
-        <v>476787.9533585972</v>
+        <v>273765.1071702152</v>
       </c>
       <c r="P2" t="n">
-        <v>193513.3299566035</v>
+        <v>273765.1071702153</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>9559.431483690014</v>
+        <v>71517.30628113207</v>
       </c>
       <c r="F3" t="n">
-        <v>65127.91260964821</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>10853.37384651718</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6389.393671483856</v>
+        <v>60663.93243461489</v>
       </c>
       <c r="K3" t="n">
-        <v>106942.165525726</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>29124.42295458229</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>141096.6663708589</v>
+        <v>246440.2967349877</v>
       </c>
       <c r="F4" t="n">
-        <v>251673.8479407256</v>
+        <v>246440.2967349877</v>
       </c>
       <c r="G4" t="n">
-        <v>251673.8479407256</v>
+        <v>264157.660471655</v>
       </c>
       <c r="H4" t="n">
-        <v>251673.8479407256</v>
+        <v>264157.660471655</v>
       </c>
       <c r="I4" t="n">
-        <v>251673.8479407256</v>
+        <v>264157.660471655</v>
       </c>
       <c r="J4" t="n">
         <v>246440.2967349877</v>
       </c>
       <c r="K4" t="n">
-        <v>312971.8704607123</v>
+        <v>246440.2967349877</v>
       </c>
       <c r="L4" t="n">
-        <v>312971.8704607123</v>
+        <v>276049.8097288206</v>
       </c>
       <c r="M4" t="n">
-        <v>312971.8704607123</v>
+        <v>276049.8097288206</v>
       </c>
       <c r="N4" t="n">
-        <v>312971.8704607123</v>
+        <v>276049.8097288206</v>
       </c>
       <c r="O4" t="n">
-        <v>303028.3416761023</v>
+        <v>174473.5068253956</v>
       </c>
       <c r="P4" t="n">
-        <v>123633.5163611633</v>
+        <v>174473.5068253956</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>1004.56480675292</v>
+        <v>7515.485527185616</v>
       </c>
       <c r="F5" t="n">
-        <v>7848.612913228564</v>
+        <v>7515.485527185616</v>
       </c>
       <c r="G5" t="n">
-        <v>7848.612913228564</v>
+        <v>8656.025884564182</v>
       </c>
       <c r="H5" t="n">
-        <v>7848.612913228564</v>
+        <v>8656.025884564182</v>
       </c>
       <c r="I5" t="n">
-        <v>7848.612913228564</v>
+        <v>8656.025884564182</v>
       </c>
       <c r="J5" t="n">
         <v>7515.485527185614</v>
       </c>
       <c r="K5" t="n">
-        <v>11909.58856268779</v>
+        <v>7515.485527185614</v>
       </c>
       <c r="L5" t="n">
-        <v>11909.58856268779</v>
+        <v>9435.521561518022</v>
       </c>
       <c r="M5" t="n">
-        <v>11909.58856268779</v>
+        <v>9435.521561518022</v>
       </c>
       <c r="N5" t="n">
-        <v>11909.58856268779</v>
+        <v>9435.521561518022</v>
       </c>
       <c r="O5" t="n">
-        <v>11238.15114197782</v>
+        <v>3060.576391710972</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>3060.576391710972</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26527,43 @@
         <v>236105.1449136034</v>
       </c>
       <c r="D6" t="n">
-        <v>236105.1449136034</v>
+        <v>236105.1449136033</v>
       </c>
       <c r="E6" t="n">
-        <v>69408.2210106006</v>
+        <v>61919.86457336248</v>
       </c>
       <c r="F6" t="n">
-        <v>71007.8192408302</v>
+        <v>133437.1708544944</v>
       </c>
       <c r="G6" t="n">
-        <v>136135.7318504784</v>
+        <v>131709.3859802048</v>
       </c>
       <c r="H6" t="n">
-        <v>136135.7318504784</v>
+        <v>142562.759826722</v>
       </c>
       <c r="I6" t="n">
-        <v>136135.7318504784</v>
+        <v>142562.7598267224</v>
       </c>
       <c r="J6" t="n">
-        <v>127047.7771830101</v>
+        <v>72773.23841987952</v>
       </c>
       <c r="K6" t="n">
-        <v>60676.4463849832</v>
+        <v>133437.1708544945</v>
       </c>
       <c r="L6" t="n">
-        <v>167618.6119107091</v>
+        <v>119552.6963054176</v>
       </c>
       <c r="M6" t="n">
-        <v>167618.6119107091</v>
+        <v>148677.1192599998</v>
       </c>
       <c r="N6" t="n">
-        <v>167618.611910709</v>
+        <v>148677.1192599998</v>
       </c>
       <c r="O6" t="n">
-        <v>162521.4605405171</v>
+        <v>96231.0239531086</v>
       </c>
       <c r="P6" t="n">
-        <v>69879.81359544014</v>
+        <v>96231.02395310874</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="F2" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="G2" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H2" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I2" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J2" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="K2" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L2" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M2" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="N2" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="O2" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
     </row>
     <row r="3">
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="F2" t="n">
-        <v>81.40989076206026</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.56671730814648</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.98674208935482</v>
+        <v>75.82991554326861</v>
       </c>
       <c r="K2" t="n">
-        <v>133.6777069071575</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27151,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="K2" t="n">
-        <v>81.40989076206026</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>13.56671730814648</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.98674208935482</v>
+        <v>75.82991554326861</v>
       </c>
       <c r="P2" t="n">
-        <v>133.6777069071575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="C11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="D11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="E11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="F11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="G11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="H11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="I11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -28117,7 +28119,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28129,34 +28131,34 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.94928935461252</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="S11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="T11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="U11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="V11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="W11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="X11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
     </row>
     <row r="12">
@@ -28166,76 +28168,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="C12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="D12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="E12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="F12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="G12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="H12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="I12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="J12" t="n">
-        <v>11.94928935461252</v>
+        <v>47.69960037011073</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>8.792873298677129</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="R12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="S12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="T12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="U12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="V12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="W12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="X12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="C13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="D13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="E13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="F13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="G13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="H13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="I13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="K13" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>11.94928935461252</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.94928935461252</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="S13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="T13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="U13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="V13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="W13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="X13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141509</v>
       </c>
     </row>
     <row r="14">
@@ -28324,43 +28326,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="C14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="D14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="E14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="F14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="G14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="H14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="I14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="J14" t="n">
-        <v>93.35918011667277</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>19.56784629227822</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -28369,31 +28371,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>93.35918011667277</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="S14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="T14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="U14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="V14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="W14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="X14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
     </row>
     <row r="15">
@@ -28403,76 +28405,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="C15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="D15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="E15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="F15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="G15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="H15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="I15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="J15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="O15" t="n">
-        <v>68.69826461415563</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="R15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="S15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="T15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="U15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="V15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="W15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="X15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="Y15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="C16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="D16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="E16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="F16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="G16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="H16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="I16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="K16" t="n">
-        <v>93.35918011667277</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>93.35918011667277</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.35918011667277</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="S16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="T16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="U16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="V16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="W16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="X16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141509</v>
       </c>
     </row>
     <row r="17">
@@ -28561,76 +28563,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J17" t="n">
-        <v>93.35918011667277</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>93.35918011667277</v>
+        <v>69.10827208838784</v>
       </c>
       <c r="R17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="18">
@@ -28640,31 +28642,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I18" t="n">
-        <v>93.35918011667277</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>93.35918011667277</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28673,13 +28675,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>68.69826461415563</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -28688,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>93.35918011667277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="K19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="L19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="M19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="N19" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="P19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="R19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="20">
@@ -28798,31 +28800,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J20" t="n">
-        <v>93.35918011667277</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28831,43 +28833,43 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>58.72710456969777</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Q20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="R20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="21">
@@ -28877,76 +28879,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I21" t="n">
-        <v>93.35918011667277</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>93.35918011667277</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.69826461415563</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J22" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>93.35918011667277</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>93.35918011667277</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>93.35918011667277</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="23">
@@ -29035,37 +29037,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J23" t="n">
-        <v>93.35918011667277</v>
+        <v>76.46768979533206</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29080,31 +29082,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="R23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="24">
@@ -29114,76 +29116,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I24" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>68.69826461415563</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J25" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>93.35918011667277</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>93.35918011667277</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>93.35918011667277</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="26">
@@ -29296,28 +29298,28 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J26" t="n">
-        <v>74.122836283838</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L26" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>72.44971420001586</v>
       </c>
       <c r="O26" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>89.39663285141508</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>89.39663285141508</v>
@@ -29375,7 +29377,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>89.39663285141508</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29460,16 +29462,16 @@
         <v>89.39663285141508</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>89.39663285141508</v>
@@ -29509,40 +29511,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C29" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D29" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E29" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F29" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G29" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H29" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I29" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J29" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -29554,31 +29556,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>141.6644489965123</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S29" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T29" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U29" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V29" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W29" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X29" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y29" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="30">
@@ -29588,76 +29590,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C30" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D30" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E30" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F30" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M30" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="O30" t="n">
-        <v>141.6644489965123</v>
+        <v>80.34984686117375</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>122.5570257967811</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S30" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T30" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U30" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V30" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W30" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X30" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y30" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="31">
@@ -29667,34 +29669,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C31" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D31" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E31" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F31" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G31" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H31" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I31" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J31" t="n">
-        <v>126.9954214393961</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K31" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29709,34 +29711,34 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>141.6644489965123</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S31" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T31" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U31" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V31" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W31" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X31" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y31" t="n">
-        <v>141.6644489965123</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="32">
@@ -29746,43 +29748,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C32" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D32" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E32" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F32" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G32" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H32" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I32" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J32" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29791,31 +29793,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>141.6644489965123</v>
+        <v>98.66635470833965</v>
       </c>
       <c r="R32" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S32" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T32" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U32" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V32" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W32" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X32" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y32" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="33">
@@ -29825,76 +29827,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C33" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D33" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E33" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F33" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>141.6644489965123</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T33" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U33" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V33" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W33" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X33" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y33" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="34">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C34" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D34" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E34" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F34" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G34" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H34" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I34" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J34" t="n">
-        <v>115.2918952063194</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>141.6644489965123</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S34" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T34" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U34" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V34" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W34" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X34" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y34" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="35">
@@ -29983,34 +29985,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C35" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D35" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E35" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F35" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G35" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H35" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I35" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J35" t="n">
-        <v>141.6644489965123</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30028,31 +30030,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>141.6644489965123</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S35" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T35" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U35" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V35" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W35" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X35" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y35" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="36">
@@ -30062,22 +30064,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C36" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D36" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E36" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F36" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -30086,52 +30088,52 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>31.38050763418714</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M36" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="O36" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R36" t="n">
-        <v>130.247067378962</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T36" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U36" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V36" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W36" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X36" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y36" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="37">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C37" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D37" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E37" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F37" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G37" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H37" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I37" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J37" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>137.7280040491476</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Q37" t="n">
-        <v>141.6644489965123</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S37" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T37" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U37" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V37" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W37" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X37" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y37" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="38">
@@ -30220,40 +30222,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C38" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D38" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E38" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F38" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G38" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H38" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I38" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J38" t="n">
-        <v>141.6644489965123</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>104.9285655575747</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30265,31 +30267,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>141.6644489965123</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S38" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T38" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U38" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V38" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W38" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X38" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y38" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="39">
@@ -30299,22 +30301,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C39" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D39" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E39" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F39" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -30323,52 +30325,52 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="O39" t="n">
-        <v>141.6644489965123</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Q39" t="n">
-        <v>122.55702579678</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S39" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T39" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U39" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V39" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W39" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X39" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y39" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="40">
@@ -30378,34 +30380,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C40" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D40" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E40" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F40" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G40" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H40" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I40" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J40" t="n">
-        <v>126.9954214393961</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K40" t="n">
-        <v>129.0132581705354</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30420,34 +30422,34 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>137.7280040491476</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Q40" t="n">
-        <v>141.6644489965123</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S40" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T40" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U40" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V40" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W40" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X40" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y40" t="n">
-        <v>141.6644489965123</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="41">
@@ -30457,31 +30459,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="C41" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="D41" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="E41" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="F41" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="G41" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="H41" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="I41" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="J41" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30493,7 +30495,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30502,31 +30504,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="R41" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="S41" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="T41" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="U41" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="V41" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="W41" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="X41" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="Y41" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
     </row>
     <row r="42">
@@ -30536,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="C42" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="D42" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="E42" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="F42" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="G42" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>114.8419642835611</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="M42" t="n">
-        <v>133.6777069071575</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>133.6777069071575</v>
+        <v>19.51686332374628</v>
       </c>
       <c r="P42" t="n">
-        <v>133.6777069071575</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="S42" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="T42" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="U42" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="V42" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="W42" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="X42" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="Y42" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
     </row>
     <row r="43">
@@ -30615,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="C43" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="D43" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="E43" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="F43" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="G43" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="H43" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="I43" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="J43" t="n">
-        <v>126.9954214393961</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="K43" t="n">
-        <v>129.0132581705354</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30651,40 +30653,40 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="R43" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="S43" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="T43" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="U43" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="V43" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="W43" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="X43" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.6777069071575</v>
+        <v>36.40552869322785</v>
       </c>
     </row>
     <row r="44">
@@ -30694,31 +30696,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30733,37 +30735,37 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
     </row>
     <row r="45">
@@ -30773,37 +30775,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -30818,31 +30820,31 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
     </row>
     <row r="46">
@@ -30852,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>3.07722268985176</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_23_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_23_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1308277.714070983</v>
+        <v>1254113.127740361</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8112558.798638824</v>
+        <v>8112558.798638829</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11739719.61562467</v>
+        <v>11739719.61562466</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6096295.656062349</v>
+        <v>6096295.656062348</v>
       </c>
     </row>
     <row r="11">
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>91.64927167527121</v>
       </c>
       <c r="K11" t="n">
         <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>146.3697821185721</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
         <v>230.3462332272727</v>
@@ -8707,10 +8707,10 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>141.8363629038545</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>132.9090570230344</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>79.13802629655596</v>
+        <v>37.44099381525162</v>
       </c>
       <c r="K12" t="n">
-        <v>48.4448061229439</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>76.35160597475038</v>
       </c>
       <c r="N12" t="n">
-        <v>41.94507923191821</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>53.19961159302935</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>44.57777456291515</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.58514123460643</v>
+        <v>50.58514123460644</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8850,25 +8850,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>39.6166253191203</v>
       </c>
       <c r="L13" t="n">
-        <v>134.8846762812383</v>
+        <v>45.48804342982321</v>
       </c>
       <c r="M13" t="n">
-        <v>138.9257839476051</v>
+        <v>49.52915109618998</v>
       </c>
       <c r="N13" t="n">
-        <v>127.6855444652332</v>
+        <v>38.28891161381812</v>
       </c>
       <c r="O13" t="n">
-        <v>138.4565384518428</v>
+        <v>49.05990560042771</v>
       </c>
       <c r="P13" t="n">
-        <v>135.0065633140411</v>
+        <v>48.33137119773254</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>62.10836877803077</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>91.64927167527121</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>130.6932181935655</v>
       </c>
       <c r="L14" t="n">
-        <v>146.3697821185721</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>140.9496003758576</v>
       </c>
       <c r="N14" t="n">
-        <v>209.8452173043127</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>141.8363629038545</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9002,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.12574714858493</v>
+        <v>10.12574714858492</v>
       </c>
       <c r="J15" t="n">
-        <v>37.4409938152516</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>48.4448061229439</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>49.15774692845909</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>52.73740107060323</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>41.94507923191821</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>44.57777456291515</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.58514123460643</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9087,10 +9087,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>56.1920958201288</v>
       </c>
       <c r="L16" t="n">
-        <v>134.8846762812383</v>
+        <v>45.48804342982321</v>
       </c>
       <c r="M16" t="n">
         <v>138.9257839476051</v>
@@ -9099,13 +9099,13 @@
         <v>127.6855444652332</v>
       </c>
       <c r="O16" t="n">
-        <v>138.4565384518428</v>
+        <v>49.05990560042771</v>
       </c>
       <c r="P16" t="n">
-        <v>135.0065633140411</v>
+        <v>48.33137119773254</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.34295837775146</v>
+        <v>62.10836877803077</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>78.08255436712473</v>
       </c>
       <c r="K17" t="n">
         <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>132.8030648104257</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>127.3828830677112</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>127.1348612621252</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>128.269645595708</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.1974177860616</v>
+        <v>119.3423397148879</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>23.87427650710514</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
@@ -9266,7 +9266,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>42.7161538044024</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>24.03207127983454</v>
+        <v>24.03207127983455</v>
       </c>
       <c r="K19" t="n">
-        <v>26.04990801097381</v>
+        <v>45.71169826896701</v>
       </c>
       <c r="L19" t="n">
-        <v>31.92132612167671</v>
+        <v>31.92132612167673</v>
       </c>
       <c r="M19" t="n">
-        <v>35.96243378804348</v>
+        <v>35.9624337880435</v>
       </c>
       <c r="N19" t="n">
-        <v>127.6855444652332</v>
+        <v>24.72219430567164</v>
       </c>
       <c r="O19" t="n">
-        <v>35.49318829228122</v>
+        <v>35.49318829228123</v>
       </c>
       <c r="P19" t="n">
-        <v>34.76465388958604</v>
+        <v>34.76465388958606</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.54165146988427</v>
+        <v>48.54165146988429</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>78.08255436712473</v>
       </c>
       <c r="K20" t="n">
         <v>220.0898510449805</v>
@@ -9409,19 +9409,19 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M20" t="n">
-        <v>171.619128657575</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>127.1348612621252</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P20" t="n">
-        <v>128.269645595708</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
-        <v>119.3423397148879</v>
+        <v>210.6421396737166</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,31 +9479,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>23.87427650710514</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>35.59102962031261</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>39.17068376245676</v>
       </c>
       <c r="N21" t="n">
-        <v>28.37836192377173</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>39.63289428488287</v>
+        <v>39.63289428488288</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>31.01105725476869</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>37.01842392645996</v>
       </c>
       <c r="R21" t="n">
-        <v>42.71615380440238</v>
+        <v>42.7161538044024</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132272333</v>
+        <v>24.03207127983455</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>26.04990801097382</v>
       </c>
       <c r="L22" t="n">
         <v>134.8846762812383</v>
       </c>
       <c r="M22" t="n">
-        <v>138.9257839476051</v>
+        <v>35.9624337880435</v>
       </c>
       <c r="N22" t="n">
-        <v>127.6855444652332</v>
+        <v>24.72219430567164</v>
       </c>
       <c r="O22" t="n">
-        <v>138.4565384518428</v>
+        <v>35.49318829228123</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>34.76465388958606</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.34295837775146</v>
+        <v>48.54165146988429</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>104.5782147313542</v>
+        <v>78.08255436712473</v>
       </c>
       <c r="K23" t="n">
-        <v>117.126500885419</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>132.8030648104257</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M23" t="n">
         <v>230.3462332272727</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>23.87427650710512</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>35.59102962031261</v>
+        <v>50.58434314545279</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>28.37836192377173</v>
+        <v>28.37836192377175</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>31.01105725476869</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>42.71615380440238</v>
+        <v>42.7161538044024</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132272333</v>
+        <v>24.03207127983455</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>26.04990801097382</v>
       </c>
       <c r="L25" t="n">
-        <v>134.8846762812383</v>
+        <v>31.92132612167673</v>
       </c>
       <c r="M25" t="n">
-        <v>138.9257839476051</v>
+        <v>35.9624337880435</v>
       </c>
       <c r="N25" t="n">
-        <v>127.6855444652332</v>
+        <v>24.72219430567164</v>
       </c>
       <c r="O25" t="n">
-        <v>138.4565384518428</v>
+        <v>35.49318829228123</v>
       </c>
       <c r="P25" t="n">
-        <v>135.0065633140411</v>
+        <v>34.76465388958606</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>91.64927167527121</v>
       </c>
       <c r="K26" t="n">
-        <v>130.6932181935655</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L26" t="n">
-        <v>146.3697821185722</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M26" t="n">
-        <v>140.9496003758576</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N26" t="n">
-        <v>156.963349396575</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
         <v>230.0982114216867</v>
@@ -9895,7 +9895,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>132.9090570230344</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>37.44099381525162</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>49.1577469284591</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
@@ -9968,7 +9968,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>76.81381649717527</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10044,10 +10044,10 @@
         <v>49.52915109618998</v>
       </c>
       <c r="N28" t="n">
-        <v>127.6855444652332</v>
+        <v>38.28891161381812</v>
       </c>
       <c r="O28" t="n">
-        <v>138.4565384518428</v>
+        <v>49.05990560042771</v>
       </c>
       <c r="P28" t="n">
         <v>48.33137119773254</v>
@@ -10114,13 +10114,13 @@
         <v>91.64927167527121</v>
       </c>
       <c r="K29" t="n">
-        <v>130.6932181935655</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M29" t="n">
-        <v>140.9496003758576</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N29" t="n">
         <v>229.4130635965909</v>
@@ -10132,7 +10132,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>159.8628156717009</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>37.44099381525162</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -10202,13 +10202,13 @@
         <v>52.73740107060324</v>
       </c>
       <c r="N30" t="n">
-        <v>41.94507923191823</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>62.24639758327069</v>
+        <v>53.19961159302936</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>44.57777456291517</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10272,10 +10272,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>39.6166253191203</v>
       </c>
       <c r="L31" t="n">
-        <v>134.8846762812383</v>
+        <v>45.48804342982321</v>
       </c>
       <c r="M31" t="n">
         <v>138.9257839476051</v>
@@ -10287,10 +10287,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>48.33137119773254</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>62.10836877803077</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10351,16 +10351,16 @@
         <v>68.81046029018982</v>
       </c>
       <c r="K32" t="n">
-        <v>107.8544068084841</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>123.5309707334908</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M32" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
-        <v>117.1776193600945</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
         <v>230.0982114216867</v>
@@ -10369,7 +10369,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
-        <v>123.6393351661098</v>
+        <v>110.070245637953</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10424,25 +10424,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>14.60218243017023</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>25.60599473786253</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>26.31893554337772</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>129.4209696855204</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>19.10626784683684</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>30.36080020794797</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10451,7 +10451,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>33.44405972746749</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>14.75997720289965</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>16.77781393403892</v>
       </c>
       <c r="L34" t="n">
-        <v>22.64923204474182</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M34" t="n">
         <v>138.9257839476051</v>
       </c>
       <c r="N34" t="n">
-        <v>15.45010022873673</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O34" t="n">
         <v>138.4565384518428</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140411</v>
+        <v>25.49255981265115</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>39.26955739294938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>68.81046029018982</v>
       </c>
       <c r="K35" t="n">
-        <v>107.8544068084841</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
         <v>235.7664149699872</v>
@@ -10597,7 +10597,7 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
-        <v>229.4130635965909</v>
+        <v>117.1776193600945</v>
       </c>
       <c r="O35" t="n">
         <v>230.0982114216867</v>
@@ -10606,7 +10606,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>110.070245637953</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10667,16 +10667,16 @@
         <v>14.60218243017023</v>
       </c>
       <c r="K36" t="n">
-        <v>106.4609313401719</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>26.31893554337772</v>
       </c>
       <c r="M36" t="n">
-        <v>29.89858968552186</v>
+        <v>115.6562453923656</v>
       </c>
       <c r="N36" t="n">
-        <v>19.10626784683684</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>30.36080020794797</v>
@@ -10685,10 +10685,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.74632984952505</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>33.44405972746749</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,19 +10743,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.63624132272333</v>
+        <v>14.75997720289965</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7437663446525</v>
+        <v>16.77781393403892</v>
       </c>
       <c r="L37" t="n">
         <v>134.8846762812383</v>
       </c>
       <c r="M37" t="n">
-        <v>26.69033971110859</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N37" t="n">
-        <v>15.45010022873673</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O37" t="n">
         <v>138.4565384518428</v>
@@ -10764,7 +10764,7 @@
         <v>25.49255981265115</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.34295837775146</v>
+        <v>39.26955739294938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>68.81046029018982</v>
       </c>
       <c r="K38" t="n">
         <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
-        <v>130.8378494124125</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M38" t="n">
-        <v>118.1107889907763</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
         <v>229.4130635965909</v>
@@ -10843,7 +10843,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>110.070245637953</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10904,7 +10904,7 @@
         <v>14.60218243017023</v>
       </c>
       <c r="K39" t="n">
-        <v>25.60599473786253</v>
+        <v>125.1283747378614</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -10913,16 +10913,16 @@
         <v>29.89858968552186</v>
       </c>
       <c r="N39" t="n">
-        <v>19.10626784683684</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>30.36080020794797</v>
       </c>
       <c r="P39" t="n">
         <v>21.73896317783378</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>27.74632984952505</v>
       </c>
       <c r="R39" t="n">
         <v>33.44405972746749</v>
@@ -11001,7 +11001,7 @@
         <v>25.49255981265115</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.34295837775146</v>
+        <v>39.26955739294938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11071,7 +11071,7 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
-        <v>193.0075349033631</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
         <v>230.0982114216867</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>90.43209797343881</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>101.4359102811311</v>
       </c>
       <c r="L42" t="n">
         <v>102.1488510866463</v>
@@ -11150,16 +11150,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>94.93618339010456</v>
       </c>
       <c r="O42" t="n">
-        <v>123.0793811206982</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>97.56887872110237</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.5762453927937</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,7 +11220,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>92.60772947730753</v>
+        <v>92.6077294773075</v>
       </c>
       <c r="L43" t="n">
         <v>134.8846762812383</v>
@@ -11229,13 +11229,13 @@
         <v>138.9257839476051</v>
       </c>
       <c r="N43" t="n">
-        <v>91.28001577200534</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O43" t="n">
         <v>138.4565384518428</v>
       </c>
       <c r="P43" t="n">
-        <v>101.3224753559198</v>
+        <v>101.3224753559197</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>144.6403758334584</v>
       </c>
       <c r="K44" t="n">
         <v>220.0898510449805</v>
@@ -11311,13 +11311,13 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>193.6926827284589</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
         <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>185.9001611812216</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>90.43209797343884</v>
+        <v>90.43209797343881</v>
       </c>
       <c r="K45" t="n">
-        <v>101.4359102811311</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>102.1488510866463</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>105.7285052287904</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>94.93618339010442</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>97.56887872110237</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.5762453927937</v>
+        <v>103.5762453927936</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>92.60772947730753</v>
+        <v>92.6077294773075</v>
       </c>
       <c r="L46" t="n">
-        <v>98.47914758801043</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M46" t="n">
-        <v>102.5202552543772</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N46" t="n">
-        <v>91.28001577200534</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O46" t="n">
-        <v>135.379315761991</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P46" t="n">
-        <v>101.3224753559198</v>
+        <v>101.3224753559197</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23263,16 +23263,16 @@
         <v>275.8762589195925</v>
       </c>
       <c r="D11" t="n">
-        <v>265.2864087692678</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E11" t="n">
         <v>292.5337372208467</v>
       </c>
       <c r="F11" t="n">
-        <v>317.4794128902963</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G11" t="n">
-        <v>325.9061046637199</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H11" t="n">
         <v>250.0781692643521</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>60.47248508973459</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S11" t="n">
-        <v>119.6234367348302</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T11" t="n">
         <v>133.6992167127163</v>
@@ -23323,7 +23323,7 @@
         <v>259.8443358659979</v>
       </c>
       <c r="X11" t="n">
-        <v>280.3344678270539</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y11" t="n">
         <v>296.8413058046385</v>
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.13655079845225</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C12" t="n">
-        <v>83.31186613690065</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D12" t="n">
-        <v>58.04843271322366</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E12" t="n">
-        <v>68.24844760398585</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F12" t="n">
-        <v>55.67257954196879</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G12" t="n">
-        <v>47.94688431179554</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H12" t="n">
-        <v>22.83881138508137</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>10.76120130122804</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S12" t="n">
-        <v>82.28653825242273</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T12" t="n">
         <v>110.7680958434065</v>
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90.43534733052221</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C13" t="n">
-        <v>77.85018824721274</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D13" t="n">
-        <v>59.21884016679726</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E13" t="n">
-        <v>57.03732979515408</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F13" t="n">
-        <v>56.02441517151615</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G13" t="n">
-        <v>78.59434650704367</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H13" t="n">
-        <v>72.83053965602448</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I13" t="n">
-        <v>66.05384207584319</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J13" t="n">
-        <v>3.962547265257683</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>87.89675852575439</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S13" t="n">
         <v>134.6199651855572</v>
@@ -23500,16 +23500,16 @@
         <v>275.8762589195925</v>
       </c>
       <c r="D14" t="n">
-        <v>265.2864087692678</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E14" t="n">
         <v>292.5337372208467</v>
       </c>
       <c r="F14" t="n">
-        <v>317.4794128902963</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G14" t="n">
-        <v>325.9061046637199</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H14" t="n">
         <v>250.0781692643521</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>60.47248508973459</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S14" t="n">
-        <v>119.6234367348302</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T14" t="n">
         <v>133.6992167127163</v>
@@ -23560,7 +23560,7 @@
         <v>259.8443358659979</v>
       </c>
       <c r="X14" t="n">
-        <v>280.3344678270539</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y14" t="n">
         <v>296.8413058046385</v>
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.13655079845225</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C15" t="n">
-        <v>83.31186613690065</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D15" t="n">
-        <v>58.04843271322366</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E15" t="n">
-        <v>68.24844760398585</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F15" t="n">
-        <v>55.67257954196879</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G15" t="n">
-        <v>47.94688431179554</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H15" t="n">
-        <v>22.83881138508137</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>10.76120130122804</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S15" t="n">
-        <v>82.28653825242273</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T15" t="n">
         <v>110.7680958434065</v>
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90.43534733052221</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C16" t="n">
-        <v>77.85018824721274</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D16" t="n">
-        <v>59.21884016679726</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E16" t="n">
-        <v>57.03732979515408</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F16" t="n">
-        <v>56.02441517151615</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G16" t="n">
-        <v>78.59434650704367</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H16" t="n">
-        <v>72.83053965602448</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I16" t="n">
-        <v>66.05384207584319</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J16" t="n">
-        <v>3.962547265257683</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>87.89675852575439</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S16" t="n">
         <v>134.6199651855572</v>
@@ -23752,7 +23752,7 @@
         <v>236.5114519562056</v>
       </c>
       <c r="I17" t="n">
-        <v>107.5125394108443</v>
+        <v>107.5125394108444</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>46.90576778158811</v>
+        <v>46.90576778158812</v>
       </c>
       <c r="S17" t="n">
         <v>106.0567194266838</v>
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>63.56983349030577</v>
+        <v>63.56983349030578</v>
       </c>
       <c r="C18" t="n">
-        <v>69.74514882875417</v>
+        <v>69.74514882875418</v>
       </c>
       <c r="D18" t="n">
-        <v>44.48171540507718</v>
+        <v>44.4817154050772</v>
       </c>
       <c r="E18" t="n">
-        <v>54.68173029583937</v>
+        <v>54.68173029583939</v>
       </c>
       <c r="F18" t="n">
-        <v>42.10586223382231</v>
+        <v>42.10586223382232</v>
       </c>
       <c r="G18" t="n">
-        <v>34.38016700364906</v>
+        <v>34.38016700364908</v>
       </c>
       <c r="H18" t="n">
-        <v>9.272094076934891</v>
+        <v>9.272094076934906</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>68.71982094427625</v>
+        <v>68.71982094427626</v>
       </c>
       <c r="T18" t="n">
-        <v>97.20137853526003</v>
+        <v>97.20137853526005</v>
       </c>
       <c r="U18" t="n">
-        <v>122.9780319214132</v>
+        <v>122.9780319214133</v>
       </c>
       <c r="V18" t="n">
         <v>129.8372369898637</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>76.86863002237573</v>
+        <v>76.86863002237574</v>
       </c>
       <c r="C19" t="n">
-        <v>64.28347093906626</v>
+        <v>64.28347093906628</v>
       </c>
       <c r="D19" t="n">
-        <v>45.65212285865078</v>
+        <v>45.6521228586508</v>
       </c>
       <c r="E19" t="n">
-        <v>43.4706124870076</v>
+        <v>43.47061248700761</v>
       </c>
       <c r="F19" t="n">
-        <v>42.45769786336967</v>
+        <v>42.45769786336969</v>
       </c>
       <c r="G19" t="n">
-        <v>65.02762919889719</v>
+        <v>65.0276291988972</v>
       </c>
       <c r="H19" t="n">
-        <v>59.263822347878</v>
+        <v>59.26382234787802</v>
       </c>
       <c r="I19" t="n">
-        <v>52.48712476769671</v>
+        <v>52.48712476769673</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>74.33004121760791</v>
+        <v>74.33004121760793</v>
       </c>
       <c r="S19" t="n">
         <v>121.0532478774107</v>
@@ -23989,7 +23989,7 @@
         <v>236.5114519562056</v>
       </c>
       <c r="I20" t="n">
-        <v>107.5125394108443</v>
+        <v>107.5125394108444</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>46.90576778158811</v>
+        <v>46.90576778158812</v>
       </c>
       <c r="S20" t="n">
         <v>106.0567194266838</v>
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>63.56983349030577</v>
+        <v>63.56983349030578</v>
       </c>
       <c r="C21" t="n">
-        <v>69.74514882875417</v>
+        <v>69.74514882875418</v>
       </c>
       <c r="D21" t="n">
-        <v>44.48171540507718</v>
+        <v>44.4817154050772</v>
       </c>
       <c r="E21" t="n">
-        <v>54.68173029583937</v>
+        <v>54.68173029583939</v>
       </c>
       <c r="F21" t="n">
-        <v>42.10586223382231</v>
+        <v>42.10586223382232</v>
       </c>
       <c r="G21" t="n">
-        <v>34.38016700364906</v>
+        <v>34.38016700364908</v>
       </c>
       <c r="H21" t="n">
-        <v>9.272094076934891</v>
+        <v>9.272094076934906</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>68.71982094427625</v>
+        <v>68.71982094427626</v>
       </c>
       <c r="T21" t="n">
-        <v>97.20137853526003</v>
+        <v>97.20137853526005</v>
       </c>
       <c r="U21" t="n">
-        <v>122.9780319214132</v>
+        <v>122.9780319214133</v>
       </c>
       <c r="V21" t="n">
         <v>129.8372369898637</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>76.86863002237573</v>
+        <v>76.86863002237574</v>
       </c>
       <c r="C22" t="n">
-        <v>64.28347093906626</v>
+        <v>64.28347093906628</v>
       </c>
       <c r="D22" t="n">
-        <v>45.65212285865078</v>
+        <v>45.6521228586508</v>
       </c>
       <c r="E22" t="n">
-        <v>43.4706124870076</v>
+        <v>43.47061248700761</v>
       </c>
       <c r="F22" t="n">
-        <v>42.45769786336967</v>
+        <v>42.45769786336969</v>
       </c>
       <c r="G22" t="n">
-        <v>65.02762919889719</v>
+        <v>65.0276291988972</v>
       </c>
       <c r="H22" t="n">
-        <v>59.263822347878</v>
+        <v>59.26382234787802</v>
       </c>
       <c r="I22" t="n">
-        <v>52.48712476769671</v>
+        <v>52.48712476769673</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>74.33004121760791</v>
+        <v>74.33004121760793</v>
       </c>
       <c r="S22" t="n">
         <v>121.0532478774107</v>
@@ -24226,7 +24226,7 @@
         <v>236.5114519562056</v>
       </c>
       <c r="I23" t="n">
-        <v>107.5125394108443</v>
+        <v>107.5125394108444</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>46.90576778158811</v>
+        <v>46.90576778158812</v>
       </c>
       <c r="S23" t="n">
         <v>106.0567194266838</v>
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>63.56983349030577</v>
+        <v>63.56983349030578</v>
       </c>
       <c r="C24" t="n">
-        <v>69.74514882875417</v>
+        <v>69.74514882875418</v>
       </c>
       <c r="D24" t="n">
-        <v>44.48171540507718</v>
+        <v>44.4817154050772</v>
       </c>
       <c r="E24" t="n">
-        <v>54.68173029583937</v>
+        <v>54.68173029583939</v>
       </c>
       <c r="F24" t="n">
-        <v>42.10586223382231</v>
+        <v>42.10586223382232</v>
       </c>
       <c r="G24" t="n">
-        <v>34.38016700364906</v>
+        <v>34.38016700364908</v>
       </c>
       <c r="H24" t="n">
-        <v>9.272094076934891</v>
+        <v>9.272094076934906</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24335,13 +24335,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>68.71982094427625</v>
+        <v>68.71982094427626</v>
       </c>
       <c r="T24" t="n">
-        <v>97.20137853526003</v>
+        <v>97.20137853526005</v>
       </c>
       <c r="U24" t="n">
-        <v>122.9780319214132</v>
+        <v>122.9780319214133</v>
       </c>
       <c r="V24" t="n">
         <v>129.8372369898637</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>76.86863002237573</v>
+        <v>76.86863002237574</v>
       </c>
       <c r="C25" t="n">
-        <v>64.28347093906626</v>
+        <v>64.28347093906628</v>
       </c>
       <c r="D25" t="n">
-        <v>45.65212285865078</v>
+        <v>45.6521228586508</v>
       </c>
       <c r="E25" t="n">
-        <v>43.4706124870076</v>
+        <v>43.47061248700761</v>
       </c>
       <c r="F25" t="n">
-        <v>42.45769786336967</v>
+        <v>42.45769786336969</v>
       </c>
       <c r="G25" t="n">
-        <v>65.02762919889719</v>
+        <v>65.0276291988972</v>
       </c>
       <c r="H25" t="n">
-        <v>59.263822347878</v>
+        <v>59.26382234787802</v>
       </c>
       <c r="I25" t="n">
-        <v>52.48712476769671</v>
+        <v>52.48712476769673</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>74.33004121760791</v>
+        <v>74.33004121760793</v>
       </c>
       <c r="S25" t="n">
         <v>121.0532478774107</v>
@@ -25639,7 +25639,7 @@
         <v>345.5248413790339</v>
       </c>
       <c r="F41" t="n">
-        <v>370.4705170484836</v>
+        <v>370.4705170484835</v>
       </c>
       <c r="G41" t="n">
         <v>378.8972088219072</v>
@@ -25648,7 +25648,7 @@
         <v>303.0692734225393</v>
       </c>
       <c r="I41" t="n">
-        <v>174.0703608771781</v>
+        <v>174.070360877178</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,16 +25684,16 @@
         <v>186.6903208709035</v>
       </c>
       <c r="U41" t="n">
-        <v>214.9401242146087</v>
+        <v>214.9401242146086</v>
       </c>
       <c r="V41" t="n">
-        <v>291.3467297769071</v>
+        <v>291.346729776907</v>
       </c>
       <c r="W41" t="n">
-        <v>312.8354400241852</v>
+        <v>312.8354400241851</v>
       </c>
       <c r="X41" t="n">
-        <v>333.3255719852412</v>
+        <v>333.3255719852411</v>
       </c>
       <c r="Y41" t="n">
         <v>349.8324099628257</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>130.1276549566395</v>
+        <v>130.1276549566394</v>
       </c>
       <c r="C42" t="n">
-        <v>136.3029702950879</v>
+        <v>136.3029702950878</v>
       </c>
       <c r="D42" t="n">
         <v>111.0395368714109</v>
@@ -25724,10 +25724,10 @@
         <v>100.9379884699828</v>
       </c>
       <c r="H42" t="n">
-        <v>75.82991554326861</v>
+        <v>75.82991554326858</v>
       </c>
       <c r="I42" t="n">
-        <v>52.99110415818723</v>
+        <v>52.9911041581872</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>63.75230545941528</v>
+        <v>63.75230545941525</v>
       </c>
       <c r="S42" t="n">
-        <v>135.27764241061</v>
+        <v>135.2776424106099</v>
       </c>
       <c r="T42" t="n">
         <v>163.7592000015937</v>
@@ -25769,7 +25769,7 @@
         <v>196.3950584561974</v>
       </c>
       <c r="W42" t="n">
-        <v>215.2894544676918</v>
+        <v>215.2894544676917</v>
       </c>
       <c r="X42" t="n">
         <v>169.3674565102496</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>143.4264514887095</v>
+        <v>143.4264514887094</v>
       </c>
       <c r="C43" t="n">
-        <v>130.8412924054</v>
+        <v>130.8412924053999</v>
       </c>
       <c r="D43" t="n">
         <v>112.2099443249845</v>
@@ -25809,7 +25809,7 @@
         <v>119.0449462340304</v>
       </c>
       <c r="J43" t="n">
-        <v>56.95365142344492</v>
+        <v>56.9536514234449</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.75651455846653</v>
+        <v>49.75651455846651</v>
       </c>
       <c r="R43" t="n">
         <v>140.8878626839416</v>
@@ -25839,22 +25839,22 @@
         <v>187.6110693437444</v>
       </c>
       <c r="T43" t="n">
-        <v>191.5400607350537</v>
+        <v>191.5400607350536</v>
       </c>
       <c r="U43" t="n">
-        <v>249.9135006632631</v>
+        <v>249.913500663263</v>
       </c>
       <c r="V43" t="n">
-        <v>215.7321146306002</v>
+        <v>215.7321146306001</v>
       </c>
       <c r="W43" t="n">
-        <v>250.1174696433632</v>
+        <v>250.1174696433631</v>
       </c>
       <c r="X43" t="n">
         <v>189.3041266958093</v>
       </c>
       <c r="Y43" t="n">
-        <v>182.179124658867</v>
+        <v>182.1791246588669</v>
       </c>
     </row>
     <row r="44">
@@ -25876,7 +25876,7 @@
         <v>345.5248413790339</v>
       </c>
       <c r="F44" t="n">
-        <v>370.4705170484836</v>
+        <v>370.4705170484835</v>
       </c>
       <c r="G44" t="n">
         <v>378.8972088219072</v>
@@ -25885,7 +25885,7 @@
         <v>303.0692734225393</v>
       </c>
       <c r="I44" t="n">
-        <v>174.0703608771781</v>
+        <v>174.070360877178</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>186.6903208709035</v>
       </c>
       <c r="U44" t="n">
-        <v>214.9401242146087</v>
+        <v>214.9401242146086</v>
       </c>
       <c r="V44" t="n">
-        <v>291.3467297769071</v>
+        <v>291.346729776907</v>
       </c>
       <c r="W44" t="n">
-        <v>312.8354400241852</v>
+        <v>312.8354400241851</v>
       </c>
       <c r="X44" t="n">
-        <v>333.3255719852412</v>
+        <v>333.3255719852411</v>
       </c>
       <c r="Y44" t="n">
         <v>349.8324099628257</v>
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>130.1276549566395</v>
+        <v>130.1276549566394</v>
       </c>
       <c r="C45" t="n">
-        <v>136.3029702950879</v>
+        <v>136.3029702950878</v>
       </c>
       <c r="D45" t="n">
         <v>111.0395368714109</v>
@@ -25961,10 +25961,10 @@
         <v>100.9379884699828</v>
       </c>
       <c r="H45" t="n">
-        <v>75.82991554326861</v>
+        <v>75.82991554326858</v>
       </c>
       <c r="I45" t="n">
-        <v>52.99110415818723</v>
+        <v>52.9911041581872</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>63.75230545941528</v>
+        <v>63.75230545941525</v>
       </c>
       <c r="S45" t="n">
-        <v>135.27764241061</v>
+        <v>135.2776424106099</v>
       </c>
       <c r="T45" t="n">
         <v>163.7592000015937</v>
@@ -26006,7 +26006,7 @@
         <v>196.3950584561974</v>
       </c>
       <c r="W45" t="n">
-        <v>215.2894544676918</v>
+        <v>215.2894544676917</v>
       </c>
       <c r="X45" t="n">
         <v>169.3674565102496</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>143.4264514887095</v>
+        <v>143.4264514887094</v>
       </c>
       <c r="C46" t="n">
-        <v>130.8412924054</v>
+        <v>130.8412924053999</v>
       </c>
       <c r="D46" t="n">
         <v>112.2099443249845</v>
@@ -26046,7 +26046,7 @@
         <v>119.0449462340304</v>
       </c>
       <c r="J46" t="n">
-        <v>56.95365142344492</v>
+        <v>56.9536514234449</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.75651455846653</v>
+        <v>49.75651455846651</v>
       </c>
       <c r="R46" t="n">
         <v>140.8878626839416</v>
@@ -26076,22 +26076,22 @@
         <v>187.6110693437444</v>
       </c>
       <c r="T46" t="n">
-        <v>191.5400607350537</v>
+        <v>191.5400607350536</v>
       </c>
       <c r="U46" t="n">
-        <v>249.9135006632631</v>
+        <v>249.913500663263</v>
       </c>
       <c r="V46" t="n">
-        <v>215.7321146306002</v>
+        <v>215.7321146306001</v>
       </c>
       <c r="W46" t="n">
-        <v>250.1174696433632</v>
+        <v>250.1174696433631</v>
       </c>
       <c r="X46" t="n">
         <v>189.3041266958093</v>
       </c>
       <c r="Y46" t="n">
-        <v>182.179124658867</v>
+        <v>182.1791246588669</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>469279.1070728319</v>
+        <v>469279.107072832</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>469279.107072832</v>
+        <v>469279.1070728319</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>491718.9268018033</v>
+        <v>491718.9268018031</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>491718.9268018032</v>
+        <v>491718.926801803</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>491718.9268018032</v>
+        <v>491718.9268018029</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>469279.107072832</v>
+        <v>469279.1070728319</v>
       </c>
     </row>
     <row r="12">
@@ -26316,13 +26316,13 @@
         <v>737348.7048453346</v>
       </c>
       <c r="C2" t="n">
-        <v>737348.7048453346</v>
+        <v>737348.7048453344</v>
       </c>
       <c r="D2" t="n">
-        <v>737348.7048453345</v>
+        <v>737348.7048453344</v>
       </c>
       <c r="E2" t="n">
-        <v>387392.9531166678</v>
+        <v>387392.9531166673</v>
       </c>
       <c r="F2" t="n">
         <v>387392.9531166677</v>
@@ -26331,31 +26331,31 @@
         <v>415376.4461829411</v>
       </c>
       <c r="H2" t="n">
-        <v>415376.4461829412</v>
+        <v>415376.4461829411</v>
       </c>
       <c r="I2" t="n">
-        <v>415376.4461829416</v>
+        <v>415376.4461829411</v>
       </c>
       <c r="J2" t="n">
+        <v>387392.9531166679</v>
+      </c>
+      <c r="K2" t="n">
         <v>387392.9531166677</v>
       </c>
-      <c r="K2" t="n">
-        <v>387392.9531166678</v>
-      </c>
       <c r="L2" t="n">
-        <v>434162.4505503385</v>
+        <v>434162.4505503384</v>
       </c>
       <c r="M2" t="n">
-        <v>434162.4505503384</v>
+        <v>434162.4505503383</v>
       </c>
       <c r="N2" t="n">
         <v>434162.4505503384</v>
       </c>
       <c r="O2" t="n">
+        <v>273765.1071702151</v>
+      </c>
+      <c r="P2" t="n">
         <v>273765.1071702152</v>
-      </c>
-      <c r="P2" t="n">
-        <v>273765.1071702153</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>71517.30628113207</v>
+        <v>71517.30628113206</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60663.93243461489</v>
+        <v>60663.93243461486</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26456,10 +26456,10 @@
         <v>276049.8097288206</v>
       </c>
       <c r="O4" t="n">
-        <v>174473.5068253956</v>
+        <v>174473.5068253957</v>
       </c>
       <c r="P4" t="n">
-        <v>174473.5068253956</v>
+        <v>174473.5068253957</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>7515.485527185616</v>
+        <v>7515.485527185614</v>
       </c>
       <c r="F5" t="n">
-        <v>7515.485527185616</v>
+        <v>7515.485527185614</v>
       </c>
       <c r="G5" t="n">
-        <v>8656.025884564182</v>
+        <v>8656.02588456418</v>
       </c>
       <c r="H5" t="n">
-        <v>8656.025884564182</v>
+        <v>8656.02588456418</v>
       </c>
       <c r="I5" t="n">
-        <v>8656.025884564182</v>
+        <v>8656.02588456418</v>
       </c>
       <c r="J5" t="n">
         <v>7515.485527185614</v>
@@ -26508,10 +26508,10 @@
         <v>9435.521561518022</v>
       </c>
       <c r="O5" t="n">
-        <v>3060.576391710972</v>
+        <v>3060.576391710975</v>
       </c>
       <c r="P5" t="n">
-        <v>3060.576391710972</v>
+        <v>3060.576391710975</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>236105.1449136034</v>
+        <v>236061.0091349223</v>
       </c>
       <c r="C6" t="n">
-        <v>236105.1449136034</v>
+        <v>236061.0091349221</v>
       </c>
       <c r="D6" t="n">
-        <v>236105.1449136033</v>
+        <v>236061.0091349221</v>
       </c>
       <c r="E6" t="n">
-        <v>61919.86457336248</v>
+        <v>52154.73569110681</v>
       </c>
       <c r="F6" t="n">
-        <v>133437.1708544944</v>
+        <v>123672.0419722393</v>
       </c>
       <c r="G6" t="n">
-        <v>131709.3859802048</v>
+        <v>122721.5763497905</v>
       </c>
       <c r="H6" t="n">
-        <v>142562.759826722</v>
+        <v>133574.9501963077</v>
       </c>
       <c r="I6" t="n">
-        <v>142562.7598267224</v>
+        <v>133574.9501963077</v>
       </c>
       <c r="J6" t="n">
-        <v>72773.23841987952</v>
+        <v>63008.10953762457</v>
       </c>
       <c r="K6" t="n">
-        <v>133437.1708544945</v>
+        <v>123672.0419722392</v>
       </c>
       <c r="L6" t="n">
-        <v>119552.6963054176</v>
+        <v>111086.7201296531</v>
       </c>
       <c r="M6" t="n">
-        <v>148677.1192599998</v>
+        <v>140211.1430842353</v>
       </c>
       <c r="N6" t="n">
-        <v>148677.1192599998</v>
+        <v>140211.1430842355</v>
       </c>
       <c r="O6" t="n">
-        <v>96231.0239531086</v>
+        <v>83309.56601678515</v>
       </c>
       <c r="P6" t="n">
-        <v>96231.02395310874</v>
+        <v>83309.5660167852</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F2" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G2" t="n">
         <v>102.9633501595616</v>
@@ -26724,10 +26724,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="O2" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="P2" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
     </row>
     <row r="3">
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141506</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>75.82991554326861</v>
+        <v>75.82991554326858</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141506</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>75.82991554326861</v>
+        <v>75.82991554326858</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28089,37 +28089,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C11" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D11" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E11" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F11" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G11" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H11" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I11" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>89.39663285141509</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28131,34 +28131,34 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>89.39663285141509</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R11" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S11" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T11" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U11" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V11" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W11" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X11" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y11" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="12">
@@ -28168,76 +28168,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C12" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D12" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E12" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F12" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G12" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H12" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>47.69960037011073</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K12" t="n">
-        <v>89.39663285141509</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>65.78242794726793</v>
       </c>
       <c r="N12" t="n">
-        <v>89.39663285141509</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>89.39663285141509</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>89.39663285141509</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R12" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S12" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T12" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U12" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V12" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W12" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X12" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y12" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="13">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C13" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D13" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E13" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F13" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G13" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H13" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I13" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J13" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R13" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S13" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T13" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U13" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V13" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W13" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X13" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y13" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="14">
@@ -28326,76 +28326,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C14" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D14" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E14" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F14" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G14" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H14" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I14" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L14" t="n">
-        <v>89.39663285141509</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N14" t="n">
-        <v>19.56784629227822</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q14" t="n">
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S14" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T14" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U14" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V14" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W14" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X14" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y14" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="15">
@@ -28405,76 +28405,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C15" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D15" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E15" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F15" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G15" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H15" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>89.39663285141509</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>89.39663285141509</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>89.39663285141509</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>89.39663285141509</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>89.39663285141509</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>89.39663285141509</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.39663285141509</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S15" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T15" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U15" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V15" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W15" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X15" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y15" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="16">
@@ -28484,37 +28484,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C16" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D16" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E16" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F16" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G16" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H16" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I16" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J16" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>72.82116235040658</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28523,37 +28523,37 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R16" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S16" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T16" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U16" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V16" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W16" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X16" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y16" t="n">
-        <v>89.39663285141509</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="17">
@@ -28587,28 +28587,28 @@
         <v>102.9633501595616</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>102.9633501595616</v>
       </c>
-      <c r="M17" t="n">
+      <c r="Q17" t="n">
         <v>102.9633501595616</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>102.9633501595616</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>69.10827208838784</v>
       </c>
       <c r="R17" t="n">
         <v>102.9633501595616</v>
@@ -28666,7 +28666,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28690,7 +28690,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S18" t="n">
         <v>102.9633501595616</v>
@@ -28748,7 +28748,7 @@
         <v>102.9633501595616</v>
       </c>
       <c r="K19" t="n">
-        <v>102.9633501595616</v>
+        <v>83.30155990156837</v>
       </c>
       <c r="L19" t="n">
         <v>102.9633501595616</v>
@@ -28757,7 +28757,7 @@
         <v>102.9633501595616</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="O19" t="n">
         <v>102.9633501595616</v>
@@ -28824,7 +28824,7 @@
         <v>102.9633501595616</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28833,19 +28833,19 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>58.72710456969777</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>102.9633501595616</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>102.9633501595616</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>102.9633501595616</v>
+        <v>11.66355020073291</v>
       </c>
       <c r="R20" t="n">
         <v>102.9633501595616</v>
@@ -28903,28 +28903,28 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
         <v>102.9633501595616</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
       <c r="N21" t="n">
-        <v>102.9633501595616</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>102.9633501595616</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="R21" t="n">
         <v>102.9633501595616</v>
@@ -28982,28 +28982,28 @@
         <v>102.9633501595616</v>
       </c>
       <c r="J22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="R22" t="n">
         <v>102.9633501595616</v>
@@ -29061,13 +29061,13 @@
         <v>102.9633501595616</v>
       </c>
       <c r="J23" t="n">
-        <v>76.46768979533206</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="K23" t="n">
-        <v>102.9633501595616</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>102.9633501595616</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29137,16 +29137,16 @@
         <v>102.9633501595616</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>102.9633501595616</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>102.9633501595616</v>
+        <v>87.97003663442139</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -29158,7 +29158,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -29219,25 +29219,25 @@
         <v>102.9633501595616</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -29298,28 +29298,28 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>89.39663285141508</v>
-      </c>
-      <c r="L26" t="n">
-        <v>89.39663285141508</v>
-      </c>
-      <c r="M26" t="n">
-        <v>89.39663285141508</v>
-      </c>
-      <c r="N26" t="n">
-        <v>72.44971420001586</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>89.39663285141508</v>
@@ -29377,13 +29377,13 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -29392,7 +29392,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>65.78242794726917</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -29468,10 +29468,10 @@
         <v>89.39663285141508</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P28" t="n">
         <v>89.39663285141508</v>
@@ -29538,13 +29538,13 @@
         <v>89.39663285141508</v>
       </c>
       <c r="K29" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -29556,7 +29556,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>62.44287420274862</v>
       </c>
       <c r="R29" t="n">
         <v>89.39663285141508</v>
@@ -29614,7 +29614,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29626,13 +29626,13 @@
         <v>89.39663285141508</v>
       </c>
       <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>89.39663285141508</v>
       </c>
-      <c r="O30" t="n">
-        <v>80.34984686117375</v>
-      </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -29696,10 +29696,10 @@
         <v>89.39663285141508</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29711,10 +29711,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R31" t="n">
         <v>89.39663285141508</v>
@@ -29775,25 +29775,25 @@
         <v>112.2354442364965</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
         <v>112.2354442364965</v>
-      </c>
-      <c r="L32" t="n">
-        <v>112.2354442364965</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>112.2354442364965</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>98.66635470833965</v>
       </c>
       <c r="R32" t="n">
         <v>112.2354442364965</v>
@@ -29848,25 +29848,25 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>12.71306423649787</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -29875,7 +29875,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S33" t="n">
         <v>112.2354442364965</v>
@@ -29930,28 +29930,28 @@
         <v>112.2354442364965</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
         <v>112.2354442364965</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
+      <c r="Q34" t="n">
         <v>112.2354442364965</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>112.2354442364965</v>
@@ -30009,20 +30009,20 @@
         <v>112.2354442364965</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>112.2354442364965</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
@@ -30030,7 +30030,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R35" t="n">
         <v>112.2354442364965</v>
@@ -30091,16 +30091,16 @@
         <v>112.2354442364965</v>
       </c>
       <c r="K36" t="n">
-        <v>31.38050763418714</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="M36" t="n">
-        <v>112.2354442364965</v>
+        <v>26.47778852965267</v>
       </c>
       <c r="N36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>112.2354442364965</v>
@@ -30109,10 +30109,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
         <v>112.2354442364965</v>
-      </c>
-      <c r="R36" t="n">
-        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>112.2354442364965</v>
@@ -30167,19 +30167,19 @@
         <v>112.2354442364965</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30188,7 +30188,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R37" t="n">
         <v>112.2354442364965</v>
@@ -30246,28 +30246,28 @@
         <v>112.2354442364965</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>104.9285655575747</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
         <v>112.2354442364965</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>112.2354442364965</v>
@@ -30328,7 +30328,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="K39" t="n">
-        <v>112.2354442364965</v>
+        <v>12.71306423649759</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -30337,16 +30337,16 @@
         <v>112.2354442364965</v>
       </c>
       <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>112.2354442364965</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R39" t="n">
         <v>112.2354442364965</v>
@@ -30425,7 +30425,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R40" t="n">
         <v>112.2354442364965</v>
@@ -30459,31 +30459,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="C41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="D41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="E41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="F41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="G41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="H41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="I41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="J41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30495,7 +30495,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>36.40552869322785</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30504,31 +30504,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="R41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="S41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="T41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="U41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="V41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="W41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="X41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="Y41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
     </row>
     <row r="42">
@@ -30538,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="C42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="D42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="E42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="F42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="G42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="H42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="I42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="L42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>36.40552869322875</v>
       </c>
       <c r="O42" t="n">
-        <v>19.51686332374628</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.40552869322785</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="S42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="T42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="U42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="V42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="W42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="X42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="Y42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
     </row>
     <row r="43">
@@ -30617,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="C43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="D43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="E43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="F43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="G43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="H43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="I43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="J43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="K43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30653,40 +30653,40 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>36.40552869322785</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="Q43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="R43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="S43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="T43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="U43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="V43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="W43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="X43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="Y43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
     </row>
     <row r="44">
@@ -30696,31 +30696,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="C44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="D44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="E44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="F44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="G44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="H44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="I44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30735,37 +30735,37 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>36.40552869322785</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="R44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="S44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="T44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="U44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="V44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="W44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="X44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="Y44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
     </row>
     <row r="45">
@@ -30775,76 +30775,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="C45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="D45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="E45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="F45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="G45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="H45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="I45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="J45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="K45" t="n">
-        <v>36.40552869322785</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>36.40552869322785</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>36.40552869322889</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="R45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="S45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="T45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="U45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="V45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="W45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="X45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="Y45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="C46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="D46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="E46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="F46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="G46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="H46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="I46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="J46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="K46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="L46" t="n">
-        <v>36.40552869322785</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>36.40552869322785</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>36.40552869322785</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>3.07722268985176</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="R46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="S46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="T46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="U46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="V46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="W46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="X46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
       <c r="Y46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322788</v>
       </c>
     </row>
   </sheetData>
